--- a/SATIM/DataSpreadsheets/ExchangeRate_Currency_Deflator_v00.xlsx
+++ b/SATIM/DataSpreadsheets/ExchangeRate_Currency_Deflator_v00.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SA NDC 2020 shared folder\net zero\Tech options Modelling\sectoral technologies etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E35A26B-C977-46DC-9D8E-683C0DA0919F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7BB8E-A509-471F-AD4B-38DD139A006A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{229B7DCB-2FD0-4685-ABA3-BD548D839EC5}"/>
+    <workbookView xWindow="-3615" yWindow="-21210" windowWidth="28770" windowHeight="15570" xr2:uid="{229B7DCB-2FD0-4685-ABA3-BD548D839EC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calcs" sheetId="1" r:id="rId1"/>
+    <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -161,6 +162,33 @@
   <si>
     <t>To 2016 Rands</t>
   </si>
+  <si>
+    <t>Exchange rate and monetary conversions</t>
+  </si>
+  <si>
+    <t>The ESRG's South African TIMES model (SATIM) uses constant 2015 Rands.</t>
+  </si>
+  <si>
+    <t>Data for parameterizing SATIM comes from various sources in various currencies (mainly rands and US dollars) for various monetary years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method 1. First convert source data (say 2018 USD) to 2018 Rands using 2018 avg exchange rate to get 2018 Rands, then convert 2018 rands to 2015 rands using SA CPI </t>
+  </si>
+  <si>
+    <t>Method 2. First convert source data (say 2018 USD) to 2015 USD using US CPI, and then convert from 2015 USD to 2015 Rands using 2015 average exchange rate</t>
+  </si>
+  <si>
+    <t>In theory both methods should yeild similar results.</t>
+  </si>
+  <si>
+    <t>It turns out that is sometimes does and sometimes don't.</t>
+  </si>
+  <si>
+    <t>We've observed that 2015, 2017, 2019 and Jan-April 2021 have quite good correspondance and have some level of consistency.</t>
+  </si>
+  <si>
+    <t>Conversion from source data in USD to SATIM could be done in two different ways.</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +268,22 @@
       <color rgb="FF2B2B2B"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFDFE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +503,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -546,6 +594,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="12" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -654,7 +715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$10</c:f>
+              <c:f>Calcs!$O$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -677,7 +738,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -722,7 +783,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$10:$AA$10</c:f>
+              <c:f>Calcs!$P$10:$AA$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -777,7 +838,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$11</c:f>
+              <c:f>Calcs!$O$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -800,7 +861,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -845,7 +906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$11:$AA$11</c:f>
+              <c:f>Calcs!$P$11:$AA$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -900,7 +961,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$12</c:f>
+              <c:f>Calcs!$O$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -923,7 +984,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -968,7 +1029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$12:$AA$12</c:f>
+              <c:f>Calcs!$P$12:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1023,7 +1084,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$13</c:f>
+              <c:f>Calcs!$O$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1046,7 +1107,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1091,7 +1152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$13:$AA$13</c:f>
+              <c:f>Calcs!$P$13:$AA$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1486,7 +1547,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$22</c:f>
+              <c:f>Calcs!$O$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1509,7 +1570,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1554,7 +1615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$22:$AA$22</c:f>
+              <c:f>Calcs!$P$22:$AA$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1609,7 +1670,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$23</c:f>
+              <c:f>Calcs!$O$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1632,7 +1693,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1677,7 +1738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$23:$AA$23</c:f>
+              <c:f>Calcs!$P$23:$AA$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1732,7 +1793,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$24</c:f>
+              <c:f>Calcs!$O$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1755,7 +1816,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1800,7 +1861,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$24:$AA$24</c:f>
+              <c:f>Calcs!$P$24:$AA$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1855,7 +1916,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$25</c:f>
+              <c:f>Calcs!$O$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1878,7 +1939,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1923,7 +1984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$25:$AA$25</c:f>
+              <c:f>Calcs!$P$25:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2310,7 +2371,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$17</c:f>
+              <c:f>Calcs!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2333,413 +2394,416 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$152</c:f>
+              <c:f>Calcs!$D$18:$D$153</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="135"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44256</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44228</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44197</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44166</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44136</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44105</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44075</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44044</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44013</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43862</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43831</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43800</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43739</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43709</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43678</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43647</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43617</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43586</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43556</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43525</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43497</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43466</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43435</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43405</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43374</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43344</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43282</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43252</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43191</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43160</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43132</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43101</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43070</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43040</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43009</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>42979</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>42948</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42917</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>42887</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42856</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42826</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>42795</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>42767</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>42736</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>42705</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>42675</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>42644</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>42614</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>42583</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>42552</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>42522</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>42491</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>42461</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>42430</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>42401</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>42370</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>42339</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>42309</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>42278</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>42248</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>42217</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>42186</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>42156</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>42125</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>42095</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>42064</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>42036</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>42005</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>41974</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>41944</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>41913</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>41883</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>41852</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>41821</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>41791</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>41760</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>41730</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>41699</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>41671</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>41640</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>41609</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>41579</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>41548</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>41518</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>41487</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>41456</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>41426</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>41395</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>41365</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>41334</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>41306</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>41275</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>41244</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>41214</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>41183</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>41153</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>41122</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>41091</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>41061</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>41030</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>41000</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>40969</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>40940</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>40909</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>40878</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>40848</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>40817</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>40787</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>40756</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>40725</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>40695</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>40664</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>40634</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>40603</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>40575</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>40544</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>40513</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>40483</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>40452</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>40422</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>40391</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>40360</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>40330</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>40299</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>40269</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>40238</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>40210</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>40179</c:v>
                 </c:pt>
               </c:numCache>
@@ -2747,413 +2811,416 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$18:$E$152</c:f>
+              <c:f>Calcs!$E$18:$E$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="135"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
+                  <c:v>14.501300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>14.8125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15.092599999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15.157500000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>14.687799999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15.466200000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>16.2438</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>16.733899999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>16.9361</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>17.008800000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>17.321000000000002</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>17.547999999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>18.5291</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>17.8552</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>15.669499999999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15.0106</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>13.998699999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>14.653499999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>15.1005</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>15.140499999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>15.185</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>14.345499999999999</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>14.0808</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>14.585000000000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>14.3005</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>14.4975</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>14.0852</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>13.255800000000001</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>14.362299999999999</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>13.869199999999999</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>14.7898</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>14.1473</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>14.6875</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>13.275</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>13.727499999999999</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>12.7013</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>12.4688</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>11.8385</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>11.7958</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>11.865</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>12.372400000000001</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>13.698499999999999</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>14.1289</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>13.556100000000001</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>13.0052</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>13.180300000000001</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>13.055099999999999</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>13.109</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>13.369300000000001</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>13.4247</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>13.129899999999999</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>13.475099999999999</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>13.7386</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>14.095000000000001</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>13.475</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>13.725</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>14.734999999999999</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>13.88</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>14.705</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>15.713100000000001</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>14.234500000000001</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>14.768700000000001</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>15.870699999999999</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>15.891</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>15.4765</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>14.4529</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>13.8247</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>13.855600000000001</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>13.2788</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>12.6745</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>12.1699</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>12.1555</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>11.913</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>12.1305</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>11.667999999999999</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>11.646800000000001</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>11.571</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>11.080500000000001</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>11.0395</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>11.285</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>10.6645</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>10.7065</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>10.638</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>10.571</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>10.523</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>10.532500000000001</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>10.758699999999999</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>11.122199999999999</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>10.497</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>10.175000000000001</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>10.049899999999999</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>10.027699999999999</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>10.28</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>9.8680000000000003</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>9.8800000000000008</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>10.0915</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>8.9681999999999995</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>9.2363</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>9.0250000000000004</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>8.9565999999999999</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>8.4573999999999998</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>8.9036000000000008</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>8.6719000000000008</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>8.3110999999999997</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>8.4</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>8.2588000000000008</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>8.1649999999999991</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>8.5079999999999991</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>7.7678000000000003</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>7.6725000000000003</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>7.5048000000000004</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>7.8150000000000004</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>8.0899000000000001</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>8.1181999999999999</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>7.9522000000000004</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>8.0962999999999994</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>6.9981999999999998</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>6.6924999999999999</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>6.7714999999999996</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>6.8067000000000002</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>6.5719000000000003</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>6.7721</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>6.9634999999999998</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>7.1905000000000001</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>6.6195000000000004</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>7.1087999999999996</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>6.9988999999999999</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>6.97</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>7.3795000000000002</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>7.2972000000000001</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>7.6725000000000003</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>7.6749000000000001</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>7.3872</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>7.2862</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>7.7169999999999996</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>7.6238000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3441,7 +3508,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$16</c:f>
+              <c:f>Calcs!$O$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3464,7 +3531,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3509,7 +3576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$16:$AA$16</c:f>
+              <c:f>Calcs!$P$16:$AA$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3564,7 +3631,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$17</c:f>
+              <c:f>Calcs!$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3587,7 +3654,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3632,7 +3699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$17:$AA$17</c:f>
+              <c:f>Calcs!$P$17:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3687,7 +3754,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$18</c:f>
+              <c:f>Calcs!$O$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3710,7 +3777,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3755,7 +3822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$18:$AA$18</c:f>
+              <c:f>Calcs!$P$18:$AA$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3810,7 +3877,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$19</c:f>
+              <c:f>Calcs!$O$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3833,7 +3900,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$AA$9</c:f>
+              <c:f>Calcs!$P$9:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3878,7 +3945,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$19:$AA$19</c:f>
+              <c:f>Calcs!$P$19:$AA$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6488,15 +6555,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6859,10 +6926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F9E0C6-CEFF-47DC-AC13-AB5365841E40}">
-  <dimension ref="C2:AE152"/>
+  <dimension ref="C2:AE153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6886,7 +6953,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="29">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
@@ -6954,52 +7021,52 @@
         <v>1</v>
       </c>
       <c r="P4" s="13">
-        <f t="shared" ref="P4:AA4" si="1">SUMIF($C$18:$C$152,P$3,$E$18:$E$152)/COUNTIF($C$18:$C$152,P$3)</f>
+        <f>SUMIF($C$18:$C$153,P$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,P$3)</f>
         <v>7.3112916666666665</v>
       </c>
       <c r="Q4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,Q$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,Q$3)</f>
         <v>7.2519583333333335</v>
       </c>
       <c r="R4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,R$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,R$3)</f>
         <v>8.2029916666666658</v>
       </c>
       <c r="S4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,S$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,S$3)</f>
         <v>9.7545999999999999</v>
       </c>
       <c r="T4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,T$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,T$3)</f>
         <v>10.874366666666667</v>
       </c>
       <c r="U4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,U$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,U$3)</f>
         <v>12.937225000000003</v>
       </c>
       <c r="V4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,V$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,V$3)</f>
         <v>14.569299999999998</v>
       </c>
       <c r="W4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,W$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,W$3)</f>
         <v>13.292041666666664</v>
       </c>
       <c r="X4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,X$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,X$3)</f>
         <v>13.294000000000002</v>
       </c>
       <c r="Y4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,Y$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,Y$3)</f>
         <v>14.435708333333336</v>
       </c>
       <c r="Z4" s="13">
-        <f t="shared" si="1"/>
+        <f>SUMIF($C$18:$C$153,Z$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,Z$3)</f>
         <v>16.584166666666668</v>
       </c>
       <c r="AA4" s="32">
-        <f t="shared" si="1"/>
-        <v>15.020866666666665</v>
+        <f>SUMIF($C$18:$C$153,AA$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,AA$3)</f>
+        <v>14.890974999999999</v>
       </c>
     </row>
     <row r="5" spans="3:29">
@@ -7050,11 +7117,11 @@
     <row r="6" spans="3:29">
       <c r="D6" s="30" t="str">
         <f>"1 "&amp;E3&amp;" ZAR = "</f>
-        <v xml:space="preserve">1 2019 ZAR = </v>
+        <v xml:space="preserve">1 2020 ZAR = </v>
       </c>
       <c r="E6" s="33">
         <f>INDEX($P$5:$AB$5,1,MATCH($E$4,$P$3:$AB$3,0))/INDEX($P$5:$AB$5,1,MATCH($E$3,$P$3:$AB$3,0))</f>
-        <v>0.81996434937611407</v>
+        <v>0.79378774805867114</v>
       </c>
       <c r="F6" t="str">
         <f>E4&amp;" ZAR"</f>
@@ -7104,11 +7171,11 @@
     <row r="7" spans="3:29">
       <c r="D7" s="30" t="str">
         <f>"1 "&amp;E3&amp;" USD = "</f>
-        <v xml:space="preserve">1 2019 USD = </v>
+        <v xml:space="preserve">1 2020 USD = </v>
       </c>
       <c r="E7" s="33">
         <f>INDEX($P$6:$AB$6,1,MATCH($E$4,$P$3:$AB$3,0))/INDEX($P$6:$AB$6,1,MATCH($E$3,$P$3:$AB$3,0))</f>
-        <v>0.92708981173994842</v>
+        <v>0.91579183265008068</v>
       </c>
       <c r="F7" t="str">
         <f>E4&amp;" USD"</f>
@@ -7132,19 +7199,19 @@
       </c>
       <c r="D9" s="30" t="str">
         <f>"1 "&amp;E3&amp;" USD = "</f>
-        <v xml:space="preserve">1 2019 USD = </v>
+        <v xml:space="preserve">1 2020 USD = </v>
       </c>
       <c r="E9">
         <f>INDEX($P$4:$AB$4,1,MATCH($E$3,$P$3:$AB$3,0))</f>
-        <v>14.435708333333336</v>
+        <v>16.584166666666668</v>
       </c>
       <c r="F9" t="str">
         <f>E3&amp;" ZAR = "</f>
-        <v xml:space="preserve">2019 ZAR = </v>
+        <v xml:space="preserve">2020 ZAR = </v>
       </c>
       <c r="G9" s="33">
         <f>E9*E6</f>
-        <v>11.836766191325017</v>
+        <v>13.164308311763014</v>
       </c>
       <c r="H9" t="str">
         <f>E4&amp;" ZAR"</f>
@@ -7155,47 +7222,47 @@
         <v>2010</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:AA9" si="2">Q3</f>
+        <f t="shared" ref="Q9:AA9" si="1">Q3</f>
         <v>2011</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2012</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="U9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -7205,11 +7272,11 @@
       </c>
       <c r="D10" s="30" t="str">
         <f>"1 "&amp;E3&amp;" USD = "</f>
-        <v xml:space="preserve">1 2019 USD = </v>
+        <v xml:space="preserve">1 2020 USD = </v>
       </c>
       <c r="E10">
         <f>E7</f>
-        <v>0.92708981173994842</v>
+        <v>0.91579183265008068</v>
       </c>
       <c r="F10" t="str">
         <f>E4&amp;" USD = "</f>
@@ -7217,7 +7284,7 @@
       </c>
       <c r="G10" s="33">
         <f>INDEX($P$4:$AB$4,1,MATCH($E$4,$P$3:$AB$3,0))*E10</f>
-        <v>11.993969489687357</v>
+        <v>11.847804992156442</v>
       </c>
       <c r="H10" t="str">
         <f>E4&amp;" ZAR"</f>
@@ -7269,11 +7336,11 @@
       </c>
       <c r="D11" s="30" t="str">
         <f>D10</f>
-        <v xml:space="preserve">1 2019 USD = </v>
+        <v xml:space="preserve">1 2020 USD = </v>
       </c>
       <c r="G11" s="33">
         <f>AVERAGE(G9:G10)</f>
-        <v>11.915367840506187</v>
+        <v>12.506056651959728</v>
       </c>
       <c r="H11" t="str">
         <f>H10</f>
@@ -7369,47 +7436,47 @@
         <v>3.2160570827086965</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:AA13" si="3">_xlfn.STDEV.S(Q10:Q11)</f>
+        <f t="shared" ref="Q13:AA13" si="2">_xlfn.STDEV.S(Q10:Q11)</f>
         <v>3.2811431314775441</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.637182041113026</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6527390944341185</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1200041916100147</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.65375482899360748</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.44978474269419172</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60846814498108848</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11115951829690279</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.93090842474840729</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11362120409528452</v>
       </c>
     </row>
@@ -7420,51 +7487,51 @@
     </row>
     <row r="15" spans="3:29">
       <c r="P15">
-        <f t="shared" ref="P15:AA15" si="4">P3</f>
+        <f t="shared" ref="P15:AA15" si="3">P3</f>
         <v>2010</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2011</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2012</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2013</v>
       </c>
       <c r="T15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2014</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2015</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="W15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
       <c r="X15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2019</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -7576,29 +7643,29 @@
     </row>
     <row r="18" spans="3:27" ht="18" thickBot="1">
       <c r="C18">
-        <f>YEAR(D18)</f>
+        <f t="shared" ref="C18:C20" si="4">YEAR(D18)</f>
         <v>2021</v>
       </c>
-      <c r="D18" s="3">
-        <v>44256</v>
-      </c>
-      <c r="E18" s="4">
-        <v>14.8125</v>
-      </c>
-      <c r="F18" s="5">
-        <v>15.0471</v>
-      </c>
-      <c r="G18" s="5">
-        <v>15.5702</v>
-      </c>
-      <c r="H18" s="5">
-        <v>14.609400000000001</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>-1.8599999999999998E-2</v>
+      <c r="D18" s="34">
+        <v>44287</v>
+      </c>
+      <c r="E18" s="35">
+        <v>14.501300000000001</v>
+      </c>
+      <c r="F18" s="36">
+        <v>14.7852</v>
+      </c>
+      <c r="G18" s="36">
+        <v>14.847099999999999</v>
+      </c>
+      <c r="H18" s="36">
+        <v>14.1469</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="O18" t="s">
         <v>32</v>
@@ -7642,29 +7709,29 @@
     </row>
     <row r="19" spans="3:27" ht="18" thickBot="1">
       <c r="C19">
-        <f t="shared" ref="C19:C82" si="5">YEAR(D19)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="D19" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="E19" s="4">
-        <v>15.092599999999999</v>
+        <v>14.8125</v>
       </c>
       <c r="F19" s="5">
-        <v>15.164999999999999</v>
+        <v>15.0471</v>
       </c>
       <c r="G19" s="5">
-        <v>15.222300000000001</v>
+        <v>15.5702</v>
       </c>
       <c r="H19" s="5">
-        <v>14.396000000000001</v>
+        <v>14.609400000000001</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <v>-4.3E-3</v>
+        <v>-1.8599999999999998E-2</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
@@ -7674,75 +7741,75 @@
         <v>4.185164652737253</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:AA19" si="6">_xlfn.STDEV.S(Q16:Q17)</f>
+        <f>_xlfn.STDEV.S(Q16:Q17)</f>
         <v>4.2309631463451218</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(R16:R17)</f>
         <v>3.5311317301022185</v>
       </c>
       <c r="S19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(S16:S17)</f>
         <v>2.4737781153349752</v>
       </c>
       <c r="T19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(T16:T17)</f>
         <v>1.895831350679628</v>
       </c>
       <c r="U19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(U16:U17)</f>
         <v>0.70397679683353465</v>
       </c>
       <c r="V19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(V16:V17)</f>
         <v>0</v>
       </c>
       <c r="W19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(W16:W17)</f>
         <v>1.1590089429360562</v>
       </c>
       <c r="X19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(X16:X17)</f>
         <v>1.3115241286944341</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(Y16:Y17)</f>
         <v>0.77085739220562444</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(Z16:Z17)</f>
         <v>0.34523721453271761</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="6"/>
+        <f>_xlfn.STDEV.S(AA16:AA17)</f>
         <v>0.7576650583979172</v>
       </c>
     </row>
     <row r="20" spans="3:27" ht="18" thickBot="1">
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="D20" s="3">
-        <v>44197</v>
-      </c>
-      <c r="E20" s="7">
-        <v>15.157500000000001</v>
+        <v>44228</v>
+      </c>
+      <c r="E20" s="4">
+        <v>15.092599999999999</v>
       </c>
       <c r="F20" s="5">
-        <v>14.695</v>
+        <v>15.164999999999999</v>
       </c>
       <c r="G20" s="5">
-        <v>15.665699999999999</v>
+        <v>15.222300000000001</v>
       </c>
       <c r="H20" s="5">
-        <v>14.5063</v>
+        <v>14.396000000000001</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="J20" s="8">
-        <v>3.2000000000000001E-2</v>
+      <c r="J20" s="6">
+        <v>-4.3E-3</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
@@ -7750,76 +7817,76 @@
     </row>
     <row r="21" spans="3:27" ht="18" thickBot="1">
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C21:C83" si="5">YEAR(D21)</f>
+        <v>2021</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44197</v>
+      </c>
+      <c r="E21" s="7">
+        <v>15.157500000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <v>14.695</v>
+      </c>
+      <c r="G21" s="5">
+        <v>15.665699999999999</v>
+      </c>
+      <c r="H21" s="5">
+        <v>14.5063</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P21">
+        <f>P9</f>
+        <v>2010</v>
+      </c>
+      <c r="Q21">
+        <f>Q9</f>
+        <v>2011</v>
+      </c>
+      <c r="R21">
+        <f>R9</f>
+        <v>2012</v>
+      </c>
+      <c r="S21">
+        <f>S9</f>
+        <v>2013</v>
+      </c>
+      <c r="T21">
+        <f>T9</f>
+        <v>2014</v>
+      </c>
+      <c r="U21">
+        <f>U9</f>
+        <v>2015</v>
+      </c>
+      <c r="V21">
+        <f>V9</f>
+        <v>2016</v>
+      </c>
+      <c r="W21">
+        <f>W9</f>
+        <v>2017</v>
+      </c>
+      <c r="X21">
+        <f>X9</f>
+        <v>2018</v>
+      </c>
+      <c r="Y21">
+        <f>Y9</f>
+        <v>2019</v>
+      </c>
+      <c r="Z21">
+        <f>Z9</f>
         <v>2020</v>
       </c>
-      <c r="D21" s="3">
-        <v>44166</v>
-      </c>
-      <c r="E21" s="4">
-        <v>14.687799999999999</v>
-      </c>
-      <c r="F21" s="5">
-        <v>15.473699999999999</v>
-      </c>
-      <c r="G21" s="5">
-        <v>15.4841</v>
-      </c>
-      <c r="H21" s="5">
-        <v>14.5107</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>-5.0299999999999997E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ref="P21:AA21" si="7">P9</f>
-        <v>2010</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="7"/>
-        <v>2011</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="7"/>
-        <v>2012</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="7"/>
-        <v>2013</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="7"/>
-        <v>2014</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="7"/>
-        <v>2015</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="7"/>
-        <v>2016</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="7"/>
-        <v>2017</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="7"/>
-        <v>2018</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="7"/>
-        <v>2020</v>
-      </c>
       <c r="AA21">
-        <f t="shared" si="7"/>
+        <f>AA9</f>
         <v>2021</v>
       </c>
     </row>
@@ -7829,25 +7896,25 @@
         <v>2020</v>
       </c>
       <c r="D22" s="3">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="E22" s="4">
-        <v>15.466200000000001</v>
+        <v>14.687799999999999</v>
       </c>
       <c r="F22" s="5">
-        <v>16.251300000000001</v>
+        <v>15.473699999999999</v>
       </c>
       <c r="G22" s="5">
-        <v>16.437200000000001</v>
+        <v>15.4841</v>
       </c>
       <c r="H22" s="5">
-        <v>15.0962</v>
+        <v>14.5107</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <v>-4.7899999999999998E-2</v>
+        <v>-5.0299999999999997E-2</v>
       </c>
       <c r="O22" t="s">
         <v>30</v>
@@ -7895,25 +7962,25 @@
         <v>2020</v>
       </c>
       <c r="D23" s="3">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="E23" s="4">
-        <v>16.2438</v>
+        <v>15.466200000000001</v>
       </c>
       <c r="F23" s="5">
-        <v>16.749300000000002</v>
+        <v>16.251300000000001</v>
       </c>
       <c r="G23" s="5">
-        <v>16.803599999999999</v>
+        <v>16.437200000000001</v>
       </c>
       <c r="H23" s="5">
-        <v>16.088200000000001</v>
+        <v>15.0962</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
       </c>
       <c r="J23" s="6">
-        <v>-2.93E-2</v>
+        <v>-4.7899999999999998E-2</v>
       </c>
       <c r="O23" t="s">
         <v>31</v>
@@ -7961,25 +8028,25 @@
         <v>2020</v>
       </c>
       <c r="D24" s="3">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="E24" s="4">
-        <v>16.733899999999998</v>
+        <v>16.2438</v>
       </c>
       <c r="F24" s="5">
-        <v>16.927499999999998</v>
+        <v>16.749300000000002</v>
       </c>
       <c r="G24" s="5">
-        <v>17.268000000000001</v>
+        <v>16.803599999999999</v>
       </c>
       <c r="H24" s="5">
-        <v>16.0807</v>
+        <v>16.088200000000001</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="6">
-        <v>-1.1900000000000001E-2</v>
+        <v>-2.93E-2</v>
       </c>
       <c r="O24" t="s">
         <v>32</v>
@@ -8027,25 +8094,25 @@
         <v>2020</v>
       </c>
       <c r="D25" s="3">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="E25" s="4">
-        <v>16.9361</v>
+        <v>16.733899999999998</v>
       </c>
       <c r="F25" s="5">
-        <v>17.047499999999999</v>
+        <v>16.927499999999998</v>
       </c>
       <c r="G25" s="5">
-        <v>17.790099999999999</v>
+        <v>17.268000000000001</v>
       </c>
       <c r="H25" s="5">
-        <v>16.545400000000001</v>
+        <v>16.0807</v>
       </c>
       <c r="I25" s="5">
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <v>-4.3E-3</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
@@ -8055,47 +8122,47 @@
         <v>3.7632483819341918</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:AA25" si="8">_xlfn.STDEV.S(Q22:Q23)</f>
+        <f t="shared" ref="Q25:AA25" si="6">_xlfn.STDEV.S(Q22:Q23)</f>
         <v>3.8474886238714787</v>
       </c>
       <c r="R25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0652600244846093</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.8668468625190691</v>
       </c>
       <c r="T25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2195168096929787</v>
       </c>
       <c r="U25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14622777683474844</v>
       </c>
       <c r="V25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.94170272572350489</v>
       </c>
       <c r="W25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.40714794294846046</v>
       </c>
       <c r="X25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.60404387414729122</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2692177391315271</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.2862100545342985E-3</v>
       </c>
     </row>
@@ -8105,25 +8172,25 @@
         <v>2020</v>
       </c>
       <c r="D26" s="3">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="E26" s="4">
-        <v>17.008800000000001</v>
+        <v>16.9361</v>
       </c>
       <c r="F26" s="5">
-        <v>17.345600000000001</v>
+        <v>17.047499999999999</v>
       </c>
       <c r="G26" s="5">
-        <v>17.382000000000001</v>
+        <v>17.790099999999999</v>
       </c>
       <c r="H26" s="5">
-        <v>16.340900000000001</v>
+        <v>16.545400000000001</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <v>-1.7999999999999999E-2</v>
+        <v>-4.3E-3</v>
       </c>
     </row>
     <row r="27" spans="3:27" ht="18" thickBot="1">
@@ -8132,25 +8199,25 @@
         <v>2020</v>
       </c>
       <c r="D27" s="3">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="E27" s="4">
-        <v>17.321000000000002</v>
+        <v>17.008800000000001</v>
       </c>
       <c r="F27" s="5">
-        <v>17.565000000000001</v>
+        <v>17.345600000000001</v>
       </c>
       <c r="G27" s="5">
-        <v>17.619</v>
+        <v>17.382000000000001</v>
       </c>
       <c r="H27" s="5">
-        <v>16.334900000000001</v>
+        <v>16.340900000000001</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
       </c>
       <c r="J27" s="6">
-        <v>-1.29E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="3:27" ht="18" thickBot="1">
@@ -8159,25 +8226,25 @@
         <v>2020</v>
       </c>
       <c r="D28" s="3">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="E28" s="4">
-        <v>17.547999999999998</v>
+        <v>17.321000000000002</v>
       </c>
       <c r="F28" s="5">
-        <v>18.529599999999999</v>
+        <v>17.565000000000001</v>
       </c>
       <c r="G28" s="5">
-        <v>18.9618</v>
+        <v>17.619</v>
       </c>
       <c r="H28" s="5">
-        <v>17.293099999999999</v>
+        <v>16.334900000000001</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <v>-5.2900000000000003E-2</v>
+        <v>-1.29E-2</v>
       </c>
     </row>
     <row r="29" spans="3:27" ht="18" thickBot="1">
@@ -8186,25 +8253,25 @@
         <v>2020</v>
       </c>
       <c r="D29" s="3">
-        <v>43922</v>
-      </c>
-      <c r="E29" s="7">
-        <v>18.5291</v>
+        <v>43952</v>
+      </c>
+      <c r="E29" s="4">
+        <v>17.547999999999998</v>
       </c>
       <c r="F29" s="5">
-        <v>17.837</v>
+        <v>18.529599999999999</v>
       </c>
       <c r="G29" s="5">
-        <v>19.354700000000001</v>
+        <v>18.9618</v>
       </c>
       <c r="H29" s="5">
-        <v>17.803599999999999</v>
+        <v>17.293099999999999</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
       </c>
-      <c r="J29" s="8">
-        <v>3.7699999999999997E-2</v>
+      <c r="J29" s="6">
+        <v>-5.2900000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="3:27" ht="18" thickBot="1">
@@ -8213,25 +8280,25 @@
         <v>2020</v>
       </c>
       <c r="D30" s="3">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="E30" s="7">
-        <v>17.8552</v>
+        <v>18.5291</v>
       </c>
       <c r="F30" s="5">
-        <v>15.6531</v>
+        <v>17.837</v>
       </c>
       <c r="G30" s="5">
-        <v>18.089300000000001</v>
+        <v>19.354700000000001</v>
       </c>
       <c r="H30" s="5">
-        <v>15.2111</v>
+        <v>17.803599999999999</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
       </c>
       <c r="J30" s="8">
-        <v>0.13950000000000001</v>
+        <v>3.7699999999999997E-2</v>
       </c>
     </row>
     <row r="31" spans="3:27" ht="18" thickBot="1">
@@ -8240,25 +8307,25 @@
         <v>2020</v>
       </c>
       <c r="D31" s="3">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="E31" s="7">
-        <v>15.669499999999999</v>
+        <v>17.8552</v>
       </c>
       <c r="F31" s="5">
-        <v>14.9976</v>
+        <v>15.6531</v>
       </c>
       <c r="G31" s="5">
-        <v>15.835800000000001</v>
+        <v>18.089300000000001</v>
       </c>
       <c r="H31" s="5">
-        <v>14.6655</v>
+        <v>15.2111</v>
       </c>
       <c r="I31" s="5">
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <v>4.3900000000000002E-2</v>
+        <v>0.13950000000000001</v>
       </c>
     </row>
     <row r="32" spans="3:27" ht="18" thickBot="1">
@@ -8267,52 +8334,52 @@
         <v>2020</v>
       </c>
       <c r="D32" s="3">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="E32" s="7">
-        <v>15.0106</v>
+        <v>15.669499999999999</v>
       </c>
       <c r="F32" s="5">
-        <v>14.0212</v>
+        <v>14.9976</v>
       </c>
       <c r="G32" s="5">
-        <v>15.0527</v>
+        <v>15.835800000000001</v>
       </c>
       <c r="H32" s="5">
-        <v>13.940899999999999</v>
+        <v>14.6655</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
       </c>
       <c r="J32" s="8">
-        <v>7.2300000000000003E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="18" thickBot="1">
       <c r="C33">
         <f t="shared" si="5"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D33" s="3">
-        <v>43800</v>
-      </c>
-      <c r="E33" s="4">
-        <v>13.998699999999999</v>
+        <v>43831</v>
+      </c>
+      <c r="E33" s="7">
+        <v>15.0106</v>
       </c>
       <c r="F33" s="5">
-        <v>14.642200000000001</v>
+        <v>14.0212</v>
       </c>
       <c r="G33" s="5">
-        <v>14.872</v>
+        <v>15.0527</v>
       </c>
       <c r="H33" s="5">
-        <v>13.957100000000001</v>
+        <v>13.940899999999999</v>
       </c>
       <c r="I33" s="5">
         <v>0</v>
       </c>
-      <c r="J33" s="6">
-        <v>-4.4699999999999997E-2</v>
+      <c r="J33" s="8">
+        <v>7.2300000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="3:31" ht="18" thickBot="1">
@@ -8321,25 +8388,25 @@
         <v>2019</v>
       </c>
       <c r="D34" s="3">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="E34" s="4">
-        <v>14.653499999999999</v>
+        <v>13.998699999999999</v>
       </c>
       <c r="F34" s="5">
-        <v>15.108000000000001</v>
+        <v>14.642200000000001</v>
       </c>
       <c r="G34" s="5">
-        <v>15.178000000000001</v>
+        <v>14.872</v>
       </c>
       <c r="H34" s="5">
-        <v>14.5984</v>
+        <v>13.957100000000001</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <v>-2.9600000000000001E-2</v>
+        <v>-4.4699999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="3:31" ht="18" thickBot="1">
@@ -8348,25 +8415,25 @@
         <v>2019</v>
       </c>
       <c r="D35" s="3">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="E35" s="4">
-        <v>15.1005</v>
+        <v>14.653499999999999</v>
       </c>
       <c r="F35" s="5">
-        <v>15.144600000000001</v>
+        <v>15.108000000000001</v>
       </c>
       <c r="G35" s="5">
-        <v>15.404999999999999</v>
+        <v>15.178000000000001</v>
       </c>
       <c r="H35" s="5">
-        <v>14.512499999999999</v>
+        <v>14.5984</v>
       </c>
       <c r="I35" s="5">
         <v>0</v>
       </c>
       <c r="J35" s="6">
-        <v>-2.5999999999999999E-3</v>
+        <v>-2.9600000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="3:31" ht="18" thickBot="1">
@@ -8375,25 +8442,25 @@
         <v>2019</v>
       </c>
       <c r="D36" s="3">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="E36" s="4">
-        <v>15.140499999999999</v>
+        <v>15.1005</v>
       </c>
       <c r="F36" s="5">
-        <v>15.2315</v>
+        <v>15.144600000000001</v>
       </c>
       <c r="G36" s="5">
-        <v>15.2951</v>
+        <v>15.404999999999999</v>
       </c>
       <c r="H36" s="5">
-        <v>14.4984</v>
+        <v>14.512499999999999</v>
       </c>
       <c r="I36" s="5">
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <v>-2.8999999999999998E-3</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="3:31" ht="18" thickBot="1">
@@ -8402,25 +8469,25 @@
         <v>2019</v>
       </c>
       <c r="D37" s="3">
-        <v>43678</v>
-      </c>
-      <c r="E37" s="7">
-        <v>15.185</v>
+        <v>43709</v>
+      </c>
+      <c r="E37" s="4">
+        <v>15.140499999999999</v>
       </c>
       <c r="F37" s="5">
-        <v>14.3428</v>
+        <v>15.2315</v>
       </c>
       <c r="G37" s="5">
-        <v>15.5025</v>
+        <v>15.2951</v>
       </c>
       <c r="H37" s="5">
-        <v>14.329700000000001</v>
+        <v>14.4984</v>
       </c>
       <c r="I37" s="5">
         <v>0</v>
       </c>
-      <c r="J37" s="8">
-        <v>5.8500000000000003E-2</v>
+      <c r="J37" s="6">
+        <v>-2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="38" spans="3:31" ht="18" thickBot="1">
@@ -8429,25 +8496,25 @@
         <v>2019</v>
       </c>
       <c r="D38" s="3">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="E38" s="7">
-        <v>14.345499999999999</v>
+        <v>15.185</v>
       </c>
       <c r="F38" s="5">
-        <v>14.071300000000001</v>
+        <v>14.3428</v>
       </c>
       <c r="G38" s="5">
-        <v>14.392099999999999</v>
+        <v>15.5025</v>
       </c>
       <c r="H38" s="5">
-        <v>13.8116</v>
+        <v>14.329700000000001</v>
       </c>
       <c r="I38" s="5">
         <v>0</v>
       </c>
       <c r="J38" s="8">
-        <v>1.8800000000000001E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="3:31" ht="18" thickBot="1">
@@ -8456,25 +8523,25 @@
         <v>2019</v>
       </c>
       <c r="D39" s="3">
-        <v>43617</v>
-      </c>
-      <c r="E39" s="4">
-        <v>14.0808</v>
+        <v>43647</v>
+      </c>
+      <c r="E39" s="7">
+        <v>14.345499999999999</v>
       </c>
       <c r="F39" s="5">
-        <v>14.596</v>
+        <v>14.071300000000001</v>
       </c>
       <c r="G39" s="5">
-        <v>15.174200000000001</v>
+        <v>14.392099999999999</v>
       </c>
       <c r="H39" s="5">
-        <v>14.067500000000001</v>
+        <v>13.8116</v>
       </c>
       <c r="I39" s="5">
         <v>0</v>
       </c>
-      <c r="J39" s="6">
-        <v>-3.4599999999999999E-2</v>
+      <c r="J39" s="8">
+        <v>1.8800000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="3:31" ht="18" thickBot="1">
@@ -8483,25 +8550,25 @@
         <v>2019</v>
       </c>
       <c r="D40" s="3">
-        <v>43586</v>
-      </c>
-      <c r="E40" s="7">
-        <v>14.585000000000001</v>
+        <v>43617</v>
+      </c>
+      <c r="E40" s="4">
+        <v>14.0808</v>
       </c>
       <c r="F40" s="5">
-        <v>14.290800000000001</v>
+        <v>14.596</v>
       </c>
       <c r="G40" s="5">
-        <v>14.8954</v>
+        <v>15.174200000000001</v>
       </c>
       <c r="H40" s="5">
-        <v>14.1225</v>
+        <v>14.067500000000001</v>
       </c>
       <c r="I40" s="5">
         <v>0</v>
       </c>
-      <c r="J40" s="8">
-        <v>1.9900000000000001E-2</v>
+      <c r="J40" s="6">
+        <v>-3.4599999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="3:31" ht="18" thickBot="1">
@@ -8510,25 +8577,25 @@
         <v>2019</v>
       </c>
       <c r="D41" s="3">
-        <v>43556</v>
-      </c>
-      <c r="E41" s="4">
-        <v>14.3005</v>
+        <v>43586</v>
+      </c>
+      <c r="E41" s="7">
+        <v>14.585000000000001</v>
       </c>
       <c r="F41" s="5">
-        <v>14.4924</v>
+        <v>14.290800000000001</v>
       </c>
       <c r="G41" s="5">
-        <v>14.559100000000001</v>
+        <v>14.8954</v>
       </c>
       <c r="H41" s="5">
-        <v>13.8711</v>
+        <v>14.1225</v>
       </c>
       <c r="I41" s="5">
         <v>0</v>
       </c>
-      <c r="J41" s="6">
-        <v>-1.3599999999999999E-2</v>
+      <c r="J41" s="8">
+        <v>1.9900000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="3:31" ht="18" thickBot="1">
@@ -8537,25 +8604,25 @@
         <v>2019</v>
       </c>
       <c r="D42" s="3">
-        <v>43525</v>
-      </c>
-      <c r="E42" s="7">
-        <v>14.4975</v>
+        <v>43556</v>
+      </c>
+      <c r="E42" s="4">
+        <v>14.3005</v>
       </c>
       <c r="F42" s="5">
-        <v>14.0878</v>
+        <v>14.4924</v>
       </c>
       <c r="G42" s="5">
-        <v>14.7624</v>
+        <v>14.559100000000001</v>
       </c>
       <c r="H42" s="5">
-        <v>14.074999999999999</v>
+        <v>13.8711</v>
       </c>
       <c r="I42" s="5">
         <v>0</v>
       </c>
-      <c r="J42" s="8">
-        <v>2.93E-2</v>
+      <c r="J42" s="6">
+        <v>-1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="3:31" ht="18" thickBot="1">
@@ -8564,25 +8631,25 @@
         <v>2019</v>
       </c>
       <c r="D43" s="3">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="E43" s="7">
-        <v>14.0852</v>
+        <v>14.4975</v>
       </c>
       <c r="F43" s="5">
-        <v>13.2515</v>
+        <v>14.0878</v>
       </c>
       <c r="G43" s="5">
-        <v>14.375500000000001</v>
+        <v>14.7624</v>
       </c>
       <c r="H43" s="5">
-        <v>13.236599999999999</v>
+        <v>14.074999999999999</v>
       </c>
       <c r="I43" s="5">
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <v>6.2600000000000003E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="O43" t="s">
         <v>27</v>
@@ -8594,25 +8661,25 @@
         <v>2019</v>
       </c>
       <c r="D44" s="3">
-        <v>43466</v>
-      </c>
-      <c r="E44" s="4">
-        <v>13.255800000000001</v>
+        <v>43497</v>
+      </c>
+      <c r="E44" s="7">
+        <v>14.0852</v>
       </c>
       <c r="F44" s="5">
-        <v>14.3546</v>
+        <v>13.2515</v>
       </c>
       <c r="G44" s="5">
-        <v>14.6881</v>
+        <v>14.375500000000001</v>
       </c>
       <c r="H44" s="5">
-        <v>13.2281</v>
+        <v>13.236599999999999</v>
       </c>
       <c r="I44" s="5">
         <v>0</v>
       </c>
-      <c r="J44" s="6">
-        <v>-7.6999999999999999E-2</v>
+      <c r="J44" s="8">
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="O44" s="26" t="s">
         <v>0</v>
@@ -8666,28 +8733,28 @@
     <row r="45" spans="3:31" ht="18" thickBot="1">
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D45" s="3">
-        <v>43435</v>
-      </c>
-      <c r="E45" s="7">
-        <v>14.362299999999999</v>
+        <v>43466</v>
+      </c>
+      <c r="E45" s="4">
+        <v>13.255800000000001</v>
       </c>
       <c r="F45" s="5">
-        <v>13.7342</v>
+        <v>14.3546</v>
       </c>
       <c r="G45" s="5">
-        <v>14.705299999999999</v>
+        <v>14.6881</v>
       </c>
       <c r="H45" s="5">
-        <v>13.5496</v>
+        <v>13.2281</v>
       </c>
       <c r="I45" s="5">
         <v>0</v>
       </c>
-      <c r="J45" s="8">
-        <v>3.56E-2</v>
+      <c r="J45" s="6">
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="O45" s="16">
         <v>2010</v>
@@ -8738,7 +8805,7 @@
         <v>1.6</v>
       </c>
       <c r="AE45">
-        <f t="shared" ref="AE45:AE55" si="9">AB45/$AB$45</f>
+        <f t="shared" ref="AE45:AE55" si="7">AB45/$AB$45</f>
         <v>1</v>
       </c>
     </row>
@@ -8748,25 +8815,25 @@
         <v>2018</v>
       </c>
       <c r="D46" s="3">
-        <v>43405</v>
-      </c>
-      <c r="E46" s="4">
-        <v>13.869199999999999</v>
+        <v>43435</v>
+      </c>
+      <c r="E46" s="7">
+        <v>14.362299999999999</v>
       </c>
       <c r="F46" s="5">
-        <v>14.772399999999999</v>
+        <v>13.7342</v>
       </c>
       <c r="G46" s="5">
-        <v>14.799300000000001</v>
+        <v>14.705299999999999</v>
       </c>
       <c r="H46" s="5">
-        <v>13.599299999999999</v>
+        <v>13.5496</v>
       </c>
       <c r="I46" s="5">
         <v>0</v>
       </c>
-      <c r="J46" s="6">
-        <v>-6.2199999999999998E-2</v>
+      <c r="J46" s="8">
+        <v>3.56E-2</v>
       </c>
       <c r="O46" s="19">
         <v>2011</v>
@@ -8817,7 +8884,7 @@
         <v>3.2</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0315652859815827</v>
       </c>
     </row>
@@ -8827,25 +8894,25 @@
         <v>2018</v>
       </c>
       <c r="D47" s="3">
-        <v>43374</v>
-      </c>
-      <c r="E47" s="7">
-        <v>14.7898</v>
+        <v>43405</v>
+      </c>
+      <c r="E47" s="4">
+        <v>13.869199999999999</v>
       </c>
       <c r="F47" s="5">
-        <v>14.1448</v>
+        <v>14.772399999999999</v>
       </c>
       <c r="G47" s="5">
-        <v>15.065</v>
+        <v>14.799300000000001</v>
       </c>
       <c r="H47" s="5">
-        <v>14.0548</v>
+        <v>13.599299999999999</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
       </c>
-      <c r="J47" s="8">
-        <v>4.5400000000000003E-2</v>
+      <c r="J47" s="6">
+        <v>-6.2199999999999998E-2</v>
       </c>
       <c r="O47" s="21">
         <v>2012</v>
@@ -8896,7 +8963,7 @@
         <v>2.1</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0529130131709286</v>
       </c>
     </row>
@@ -8906,25 +8973,25 @@
         <v>2018</v>
       </c>
       <c r="D48" s="3">
-        <v>43344</v>
-      </c>
-      <c r="E48" s="4">
-        <v>14.1473</v>
+        <v>43374</v>
+      </c>
+      <c r="E48" s="7">
+        <v>14.7898</v>
       </c>
       <c r="F48" s="5">
-        <v>14.6875</v>
+        <v>14.1448</v>
       </c>
       <c r="G48" s="5">
-        <v>15.699400000000001</v>
+        <v>15.065</v>
       </c>
       <c r="H48" s="5">
-        <v>13.9975</v>
+        <v>14.0548</v>
       </c>
       <c r="I48" s="5">
         <v>0</v>
       </c>
-      <c r="J48" s="6">
-        <v>-3.6799999999999999E-2</v>
+      <c r="J48" s="8">
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="O48" s="19">
         <v>2013</v>
@@ -8975,7 +9042,7 @@
         <v>1.5</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0683356568954763</v>
       </c>
     </row>
@@ -8985,25 +9052,25 @@
         <v>2018</v>
       </c>
       <c r="D49" s="3">
-        <v>43313</v>
-      </c>
-      <c r="E49" s="7">
+        <v>43344</v>
+      </c>
+      <c r="E49" s="4">
+        <v>14.1473</v>
+      </c>
+      <c r="F49" s="5">
         <v>14.6875</v>
       </c>
-      <c r="F49" s="5">
-        <v>13.2651</v>
-      </c>
       <c r="G49" s="5">
-        <v>15.481299999999999</v>
+        <v>15.699400000000001</v>
       </c>
       <c r="H49" s="5">
-        <v>13.1706</v>
+        <v>13.9975</v>
       </c>
       <c r="I49" s="5">
         <v>0</v>
       </c>
-      <c r="J49" s="8">
-        <v>0.10639999999999999</v>
+      <c r="J49" s="6">
+        <v>-3.6799999999999999E-2</v>
       </c>
       <c r="O49" s="21">
         <v>2014</v>
@@ -9054,7 +9121,7 @@
         <v>1.6</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0856660674322192</v>
       </c>
     </row>
@@ -9064,25 +9131,25 @@
         <v>2018</v>
       </c>
       <c r="D50" s="3">
-        <v>43282</v>
-      </c>
-      <c r="E50" s="4">
-        <v>13.275</v>
+        <v>43313</v>
+      </c>
+      <c r="E50" s="7">
+        <v>14.6875</v>
       </c>
       <c r="F50" s="5">
-        <v>13.725300000000001</v>
+        <v>13.2651</v>
       </c>
       <c r="G50" s="5">
-        <v>13.9252</v>
+        <v>15.481299999999999</v>
       </c>
       <c r="H50" s="5">
-        <v>13.072800000000001</v>
+        <v>13.1706</v>
       </c>
       <c r="I50" s="5">
         <v>0</v>
       </c>
-      <c r="J50" s="6">
-        <v>-3.3000000000000002E-2</v>
+      <c r="J50" s="8">
+        <v>0.10639999999999999</v>
       </c>
       <c r="O50" s="19">
         <v>2015</v>
@@ -9133,7 +9200,7 @@
         <v>0.1</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0869547272260336</v>
       </c>
     </row>
@@ -9143,25 +9210,25 @@
         <v>2018</v>
       </c>
       <c r="D51" s="3">
-        <v>43252</v>
-      </c>
-      <c r="E51" s="7">
-        <v>13.727499999999999</v>
+        <v>43282</v>
+      </c>
+      <c r="E51" s="4">
+        <v>13.275</v>
       </c>
       <c r="F51" s="5">
-        <v>12.6906</v>
+        <v>13.725300000000001</v>
       </c>
       <c r="G51" s="5">
-        <v>14.0002</v>
+        <v>13.9252</v>
       </c>
       <c r="H51" s="5">
-        <v>12.508800000000001</v>
+        <v>13.072800000000001</v>
       </c>
       <c r="I51" s="5">
         <v>0</v>
       </c>
-      <c r="J51" s="8">
-        <v>8.0799999999999997E-2</v>
+      <c r="J51" s="6">
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="O51" s="21">
         <v>2016</v>
@@ -9212,7 +9279,7 @@
         <v>1.3</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1006668011886855</v>
       </c>
     </row>
@@ -9222,25 +9289,25 @@
         <v>2018</v>
       </c>
       <c r="D52" s="3">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="E52" s="7">
-        <v>12.7013</v>
+        <v>13.727499999999999</v>
       </c>
       <c r="F52" s="5">
-        <v>12.4663</v>
+        <v>12.6906</v>
       </c>
       <c r="G52" s="5">
-        <v>12.8992</v>
+        <v>14.0002</v>
       </c>
       <c r="H52" s="5">
-        <v>12.179600000000001</v>
+        <v>12.508800000000001</v>
       </c>
       <c r="I52" s="5">
         <v>0</v>
       </c>
       <c r="J52" s="8">
-        <v>1.8599999999999998E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="O52" s="19">
         <v>2017</v>
@@ -9291,7 +9358,7 @@
         <v>2.1</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1241149062626115</v>
       </c>
     </row>
@@ -9301,25 +9368,25 @@
         <v>2018</v>
       </c>
       <c r="D53" s="3">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="E53" s="7">
-        <v>12.4688</v>
+        <v>12.7013</v>
       </c>
       <c r="F53" s="5">
-        <v>11.8713</v>
+        <v>12.4663</v>
       </c>
       <c r="G53" s="5">
-        <v>12.535</v>
+        <v>12.8992</v>
       </c>
       <c r="H53" s="5">
-        <v>11.7875</v>
+        <v>12.179600000000001</v>
       </c>
       <c r="I53" s="5">
         <v>0</v>
       </c>
       <c r="J53" s="8">
-        <v>5.3199999999999997E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="O53" s="21">
         <v>2018</v>
@@ -9370,7 +9437,7 @@
         <v>2.4</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1515711560333124</v>
       </c>
     </row>
@@ -9380,25 +9447,25 @@
         <v>2018</v>
       </c>
       <c r="D54" s="3">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="E54" s="7">
-        <v>11.8385</v>
+        <v>12.4688</v>
       </c>
       <c r="F54" s="5">
-        <v>11.7988</v>
+        <v>11.8713</v>
       </c>
       <c r="G54" s="5">
-        <v>12.115</v>
+        <v>12.535</v>
       </c>
       <c r="H54" s="5">
-        <v>11.603999999999999</v>
+        <v>11.7875</v>
       </c>
       <c r="I54" s="5">
         <v>0</v>
       </c>
       <c r="J54" s="8">
-        <v>3.5999999999999999E-3</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="O54" s="19">
         <v>2019</v>
@@ -9449,7 +9516,7 @@
         <v>1.8</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1724373555416956</v>
       </c>
     </row>
@@ -9459,25 +9526,25 @@
         <v>2018</v>
       </c>
       <c r="D55" s="3">
-        <v>43132</v>
-      </c>
-      <c r="E55" s="4">
-        <v>11.7958</v>
+        <v>43160</v>
+      </c>
+      <c r="E55" s="7">
+        <v>11.8385</v>
       </c>
       <c r="F55" s="5">
-        <v>11.8675</v>
+        <v>11.7988</v>
       </c>
       <c r="G55" s="5">
-        <v>12.201499999999999</v>
+        <v>12.115</v>
       </c>
       <c r="H55" s="5">
-        <v>11.5075</v>
+        <v>11.603999999999999</v>
       </c>
       <c r="I55" s="5">
         <v>0</v>
       </c>
-      <c r="J55" s="6">
-        <v>-5.7999999999999996E-3</v>
+      <c r="J55" s="8">
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="O55" s="23">
         <v>2020</v>
@@ -9528,7 +9595,7 @@
         <v>1.2</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1869015298822319</v>
       </c>
     </row>
@@ -9538,52 +9605,52 @@
         <v>2018</v>
       </c>
       <c r="D56" s="3">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="E56" s="4">
-        <v>11.865</v>
+        <v>11.7958</v>
       </c>
       <c r="F56" s="5">
-        <v>12.3749</v>
+        <v>11.8675</v>
       </c>
       <c r="G56" s="5">
-        <v>12.5573</v>
+        <v>12.201499999999999</v>
       </c>
       <c r="H56" s="5">
-        <v>11.797499999999999</v>
+        <v>11.5075</v>
       </c>
       <c r="I56" s="5">
         <v>0</v>
       </c>
       <c r="J56" s="6">
-        <v>-4.1000000000000002E-2</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="57" spans="3:31" ht="18" thickBot="1">
       <c r="C57">
         <f t="shared" si="5"/>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D57" s="3">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="E57" s="4">
-        <v>12.372400000000001</v>
+        <v>11.865</v>
       </c>
       <c r="F57" s="5">
-        <v>13.6915</v>
+        <v>12.3749</v>
       </c>
       <c r="G57" s="5">
-        <v>13.817500000000001</v>
+        <v>12.5573</v>
       </c>
       <c r="H57" s="5">
-        <v>12.2399</v>
+        <v>11.797499999999999</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
       </c>
       <c r="J57" s="6">
-        <v>-9.6799999999999997E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="3:31" ht="18" thickBot="1">
@@ -9592,25 +9659,25 @@
         <v>2017</v>
       </c>
       <c r="D58" s="3">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="E58" s="4">
-        <v>13.698499999999999</v>
+        <v>12.372400000000001</v>
       </c>
       <c r="F58" s="5">
-        <v>14.128299999999999</v>
+        <v>13.6915</v>
       </c>
       <c r="G58" s="5">
-        <v>14.58</v>
+        <v>13.817500000000001</v>
       </c>
       <c r="H58" s="5">
-        <v>13.557499999999999</v>
+        <v>12.2399</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
       </c>
       <c r="J58" s="6">
-        <v>-3.0499999999999999E-2</v>
+        <v>-9.6799999999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="3:31" ht="18" thickBot="1">
@@ -9619,25 +9686,25 @@
         <v>2017</v>
       </c>
       <c r="D59" s="3">
-        <v>43009</v>
-      </c>
-      <c r="E59" s="7">
-        <v>14.1289</v>
+        <v>43040</v>
+      </c>
+      <c r="E59" s="4">
+        <v>13.698499999999999</v>
       </c>
       <c r="F59" s="5">
-        <v>13.5619</v>
+        <v>14.128299999999999</v>
       </c>
       <c r="G59" s="5">
-        <v>14.3552</v>
+        <v>14.58</v>
       </c>
       <c r="H59" s="5">
-        <v>13.247400000000001</v>
+        <v>13.557499999999999</v>
       </c>
       <c r="I59" s="5">
         <v>0</v>
       </c>
-      <c r="J59" s="8">
-        <v>4.2299999999999997E-2</v>
+      <c r="J59" s="6">
+        <v>-3.0499999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="3:31" ht="18" thickBot="1">
@@ -9646,25 +9713,25 @@
         <v>2017</v>
       </c>
       <c r="D60" s="3">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="E60" s="7">
-        <v>13.556100000000001</v>
+        <v>14.1289</v>
       </c>
       <c r="F60" s="5">
-        <v>13.0101</v>
+        <v>13.5619</v>
       </c>
       <c r="G60" s="5">
-        <v>13.7195</v>
+        <v>14.3552</v>
       </c>
       <c r="H60" s="5">
-        <v>12.739000000000001</v>
+        <v>13.247400000000001</v>
       </c>
       <c r="I60" s="5">
         <v>0</v>
       </c>
       <c r="J60" s="8">
-        <v>4.24E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
     </row>
     <row r="61" spans="3:31" ht="18" thickBot="1">
@@ -9673,25 +9740,25 @@
         <v>2017</v>
       </c>
       <c r="D61" s="3">
-        <v>42948</v>
-      </c>
-      <c r="E61" s="4">
-        <v>13.0052</v>
+        <v>42979</v>
+      </c>
+      <c r="E61" s="7">
+        <v>13.556100000000001</v>
       </c>
       <c r="F61" s="5">
-        <v>13.2235</v>
+        <v>13.0101</v>
       </c>
       <c r="G61" s="5">
-        <v>13.549799999999999</v>
+        <v>13.7195</v>
       </c>
       <c r="H61" s="5">
-        <v>12.952400000000001</v>
+        <v>12.739000000000001</v>
       </c>
       <c r="I61" s="5">
         <v>0</v>
       </c>
-      <c r="J61" s="6">
-        <v>-1.3299999999999999E-2</v>
+      <c r="J61" s="8">
+        <v>4.24E-2</v>
       </c>
     </row>
     <row r="62" spans="3:31" ht="18" thickBot="1">
@@ -9700,25 +9767,25 @@
         <v>2017</v>
       </c>
       <c r="D62" s="3">
-        <v>42917</v>
-      </c>
-      <c r="E62" s="7">
-        <v>13.180300000000001</v>
+        <v>42948</v>
+      </c>
+      <c r="E62" s="4">
+        <v>13.0052</v>
       </c>
       <c r="F62" s="5">
-        <v>13.073700000000001</v>
+        <v>13.2235</v>
       </c>
       <c r="G62" s="5">
-        <v>13.642799999999999</v>
+        <v>13.549799999999999</v>
       </c>
       <c r="H62" s="5">
-        <v>12.867000000000001</v>
+        <v>12.952400000000001</v>
       </c>
       <c r="I62" s="5">
         <v>0</v>
       </c>
-      <c r="J62" s="8">
-        <v>9.5999999999999992E-3</v>
+      <c r="J62" s="6">
+        <v>-1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="3:31" ht="18" thickBot="1">
@@ -9727,25 +9794,25 @@
         <v>2017</v>
       </c>
       <c r="D63" s="3">
-        <v>42887</v>
-      </c>
-      <c r="E63" s="4">
-        <v>13.055099999999999</v>
+        <v>42917</v>
+      </c>
+      <c r="E63" s="7">
+        <v>13.180300000000001</v>
       </c>
       <c r="F63" s="5">
-        <v>13.125</v>
+        <v>13.073700000000001</v>
       </c>
       <c r="G63" s="5">
-        <v>13.1525</v>
+        <v>13.642799999999999</v>
       </c>
       <c r="H63" s="5">
-        <v>12.543799999999999</v>
+        <v>12.867000000000001</v>
       </c>
       <c r="I63" s="5">
         <v>0</v>
       </c>
-      <c r="J63" s="6">
-        <v>-4.1000000000000003E-3</v>
+      <c r="J63" s="8">
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="64" spans="3:31" ht="18" thickBot="1">
@@ -9754,25 +9821,25 @@
         <v>2017</v>
       </c>
       <c r="D64" s="3">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="E64" s="4">
-        <v>13.109</v>
+        <v>13.055099999999999</v>
       </c>
       <c r="F64" s="5">
-        <v>13.3588</v>
+        <v>13.125</v>
       </c>
       <c r="G64" s="5">
-        <v>13.715</v>
+        <v>13.1525</v>
       </c>
       <c r="H64" s="5">
-        <v>12.637499999999999</v>
+        <v>12.543799999999999</v>
       </c>
       <c r="I64" s="5">
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>-1.95E-2</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="65" spans="3:10" ht="18" thickBot="1">
@@ -9781,25 +9848,25 @@
         <v>2017</v>
       </c>
       <c r="D65" s="3">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="E65" s="4">
-        <v>13.369300000000001</v>
+        <v>13.109</v>
       </c>
       <c r="F65" s="5">
-        <v>13.415900000000001</v>
+        <v>13.3588</v>
       </c>
       <c r="G65" s="5">
-        <v>13.9603</v>
+        <v>13.715</v>
       </c>
       <c r="H65" s="5">
-        <v>12.875</v>
+        <v>12.637499999999999</v>
       </c>
       <c r="I65" s="5">
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>-4.1000000000000003E-3</v>
+        <v>-1.95E-2</v>
       </c>
     </row>
     <row r="66" spans="3:10" ht="18" thickBot="1">
@@ -9808,25 +9875,25 @@
         <v>2017</v>
       </c>
       <c r="D66" s="3">
-        <v>42795</v>
-      </c>
-      <c r="E66" s="7">
-        <v>13.4247</v>
+        <v>42826</v>
+      </c>
+      <c r="E66" s="4">
+        <v>13.369300000000001</v>
       </c>
       <c r="F66" s="5">
-        <v>13.123799999999999</v>
+        <v>13.415900000000001</v>
       </c>
       <c r="G66" s="5">
-        <v>13.617800000000001</v>
+        <v>13.9603</v>
       </c>
       <c r="H66" s="5">
-        <v>12.3094</v>
+        <v>12.875</v>
       </c>
       <c r="I66" s="5">
         <v>0</v>
       </c>
-      <c r="J66" s="8">
-        <v>2.2499999999999999E-2</v>
+      <c r="J66" s="6">
+        <v>-4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="67" spans="3:10" ht="18" thickBot="1">
@@ -9835,25 +9902,25 @@
         <v>2017</v>
       </c>
       <c r="D67" s="3">
-        <v>42767</v>
-      </c>
-      <c r="E67" s="4">
-        <v>13.129899999999999</v>
+        <v>42795</v>
+      </c>
+      <c r="E67" s="7">
+        <v>13.4247</v>
       </c>
       <c r="F67" s="5">
-        <v>13.4758</v>
+        <v>13.123799999999999</v>
       </c>
       <c r="G67" s="5">
-        <v>13.545</v>
+        <v>13.617800000000001</v>
       </c>
       <c r="H67" s="5">
-        <v>12.8005</v>
+        <v>12.3094</v>
       </c>
       <c r="I67" s="5">
         <v>0</v>
       </c>
-      <c r="J67" s="6">
-        <v>-2.5600000000000001E-2</v>
+      <c r="J67" s="8">
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="3:10" ht="18" thickBot="1">
@@ -9862,52 +9929,52 @@
         <v>2017</v>
       </c>
       <c r="D68" s="3">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="E68" s="4">
-        <v>13.475099999999999</v>
+        <v>13.129899999999999</v>
       </c>
       <c r="F68" s="5">
-        <v>13.731</v>
+        <v>13.4758</v>
       </c>
       <c r="G68" s="5">
-        <v>13.99</v>
+        <v>13.545</v>
       </c>
       <c r="H68" s="5">
-        <v>13.204599999999999</v>
+        <v>12.8005</v>
       </c>
       <c r="I68" s="5">
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>-1.9199999999999998E-2</v>
+        <v>-2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="3:10" ht="18" thickBot="1">
       <c r="C69">
         <f t="shared" si="5"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D69" s="3">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="E69" s="4">
-        <v>13.7386</v>
+        <v>13.475099999999999</v>
       </c>
       <c r="F69" s="5">
-        <v>14.092000000000001</v>
+        <v>13.731</v>
       </c>
       <c r="G69" s="5">
-        <v>14.1844</v>
+        <v>13.99</v>
       </c>
       <c r="H69" s="5">
-        <v>13.456200000000001</v>
+        <v>13.204599999999999</v>
       </c>
       <c r="I69" s="5">
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>-2.53E-2</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="70" spans="3:10" ht="18" thickBot="1">
@@ -9916,25 +9983,25 @@
         <v>2016</v>
       </c>
       <c r="D70" s="3">
-        <v>42675</v>
-      </c>
-      <c r="E70" s="7">
-        <v>14.095000000000001</v>
+        <v>42705</v>
+      </c>
+      <c r="E70" s="4">
+        <v>13.7386</v>
       </c>
       <c r="F70" s="5">
-        <v>13.4747</v>
+        <v>14.092000000000001</v>
       </c>
       <c r="G70" s="5">
-        <v>14.66</v>
+        <v>14.1844</v>
       </c>
       <c r="H70" s="5">
-        <v>13.175000000000001</v>
+        <v>13.456200000000001</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
       </c>
-      <c r="J70" s="8">
-        <v>4.5999999999999999E-2</v>
+      <c r="J70" s="6">
+        <v>-2.53E-2</v>
       </c>
     </row>
     <row r="71" spans="3:10" ht="18" thickBot="1">
@@ -9943,25 +10010,25 @@
         <v>2016</v>
       </c>
       <c r="D71" s="3">
-        <v>42644</v>
-      </c>
-      <c r="E71" s="4">
-        <v>13.475</v>
+        <v>42675</v>
+      </c>
+      <c r="E71" s="7">
+        <v>14.095000000000001</v>
       </c>
       <c r="F71" s="5">
-        <v>13.77</v>
+        <v>13.4747</v>
       </c>
       <c r="G71" s="5">
-        <v>14.5084</v>
+        <v>14.66</v>
       </c>
       <c r="H71" s="5">
-        <v>13.4674</v>
+        <v>13.175000000000001</v>
       </c>
       <c r="I71" s="5">
         <v>0</v>
       </c>
-      <c r="J71" s="6">
-        <v>-1.8200000000000001E-2</v>
+      <c r="J71" s="8">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="3:10" ht="18" thickBot="1">
@@ -9970,25 +10037,25 @@
         <v>2016</v>
       </c>
       <c r="D72" s="3">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="E72" s="4">
-        <v>13.725</v>
+        <v>13.475</v>
       </c>
       <c r="F72" s="5">
-        <v>14.7285</v>
+        <v>13.77</v>
       </c>
       <c r="G72" s="5">
-        <v>14.765499999999999</v>
+        <v>14.5084</v>
       </c>
       <c r="H72" s="5">
-        <v>13.384600000000001</v>
+        <v>13.4674</v>
       </c>
       <c r="I72" s="5">
         <v>0</v>
       </c>
       <c r="J72" s="6">
-        <v>-6.8500000000000005E-2</v>
+        <v>-1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="3:10" ht="18" thickBot="1">
@@ -9997,25 +10064,25 @@
         <v>2016</v>
       </c>
       <c r="D73" s="3">
-        <v>42583</v>
-      </c>
-      <c r="E73" s="7">
-        <v>14.734999999999999</v>
+        <v>42614</v>
+      </c>
+      <c r="E73" s="4">
+        <v>13.725</v>
       </c>
       <c r="F73" s="5">
-        <v>13.8688</v>
+        <v>14.7285</v>
       </c>
       <c r="G73" s="5">
-        <v>14.7475</v>
+        <v>14.765499999999999</v>
       </c>
       <c r="H73" s="5">
-        <v>13.195</v>
+        <v>13.384600000000001</v>
       </c>
       <c r="I73" s="5">
         <v>0</v>
       </c>
-      <c r="J73" s="8">
-        <v>6.1600000000000002E-2</v>
+      <c r="J73" s="6">
+        <v>-6.8500000000000005E-2</v>
       </c>
     </row>
     <row r="74" spans="3:10" ht="18" thickBot="1">
@@ -10024,25 +10091,25 @@
         <v>2016</v>
       </c>
       <c r="D74" s="3">
-        <v>42552</v>
-      </c>
-      <c r="E74" s="4">
-        <v>13.88</v>
+        <v>42583</v>
+      </c>
+      <c r="E74" s="7">
+        <v>14.734999999999999</v>
       </c>
       <c r="F74" s="5">
-        <v>14.7049</v>
+        <v>13.8688</v>
       </c>
       <c r="G74" s="5">
-        <v>14.9564</v>
+        <v>14.7475</v>
       </c>
       <c r="H74" s="5">
-        <v>13.823499999999999</v>
+        <v>13.195</v>
       </c>
       <c r="I74" s="5">
         <v>0</v>
       </c>
-      <c r="J74" s="6">
-        <v>-5.6099999999999997E-2</v>
+      <c r="J74" s="8">
+        <v>6.1600000000000002E-2</v>
       </c>
     </row>
     <row r="75" spans="3:10" ht="18" thickBot="1">
@@ -10051,25 +10118,25 @@
         <v>2016</v>
       </c>
       <c r="D75" s="3">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="E75" s="4">
-        <v>14.705</v>
+        <v>13.88</v>
       </c>
       <c r="F75" s="5">
-        <v>15.730600000000001</v>
+        <v>14.7049</v>
       </c>
       <c r="G75" s="5">
-        <v>15.759499999999999</v>
+        <v>14.9564</v>
       </c>
       <c r="H75" s="5">
-        <v>14.32</v>
+        <v>13.823499999999999</v>
       </c>
       <c r="I75" s="5">
         <v>0</v>
       </c>
       <c r="J75" s="6">
-        <v>-6.4199999999999993E-2</v>
+        <v>-5.6099999999999997E-2</v>
       </c>
     </row>
     <row r="76" spans="3:10" ht="18" thickBot="1">
@@ -10078,25 +10145,25 @@
         <v>2016</v>
       </c>
       <c r="D76" s="3">
-        <v>42491</v>
-      </c>
-      <c r="E76" s="7">
-        <v>15.713100000000001</v>
+        <v>42522</v>
+      </c>
+      <c r="E76" s="4">
+        <v>14.705</v>
       </c>
       <c r="F76" s="5">
-        <v>14.2075</v>
+        <v>15.730600000000001</v>
       </c>
       <c r="G76" s="5">
-        <v>15.984500000000001</v>
+        <v>15.759499999999999</v>
       </c>
       <c r="H76" s="5">
-        <v>14.1717</v>
+        <v>14.32</v>
       </c>
       <c r="I76" s="5">
         <v>0</v>
       </c>
-      <c r="J76" s="8">
-        <v>0.10390000000000001</v>
+      <c r="J76" s="6">
+        <v>-6.4199999999999993E-2</v>
       </c>
     </row>
     <row r="77" spans="3:10" ht="18" thickBot="1">
@@ -10105,25 +10172,25 @@
         <v>2016</v>
       </c>
       <c r="D77" s="3">
-        <v>42461</v>
-      </c>
-      <c r="E77" s="4">
-        <v>14.234500000000001</v>
+        <v>42491</v>
+      </c>
+      <c r="E77" s="7">
+        <v>15.713100000000001</v>
       </c>
       <c r="F77" s="5">
-        <v>14.7523</v>
+        <v>14.2075</v>
       </c>
       <c r="G77" s="5">
-        <v>15.2995</v>
+        <v>15.984500000000001</v>
       </c>
       <c r="H77" s="5">
-        <v>14.1029</v>
+        <v>14.1717</v>
       </c>
       <c r="I77" s="5">
         <v>0</v>
       </c>
-      <c r="J77" s="6">
-        <v>-3.6200000000000003E-2</v>
+      <c r="J77" s="8">
+        <v>0.10390000000000001</v>
       </c>
     </row>
     <row r="78" spans="3:10" ht="18" thickBot="1">
@@ -10132,25 +10199,25 @@
         <v>2016</v>
       </c>
       <c r="D78" s="3">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="E78" s="4">
-        <v>14.768700000000001</v>
+        <v>14.234500000000001</v>
       </c>
       <c r="F78" s="5">
-        <v>15.8567</v>
+        <v>14.7523</v>
       </c>
       <c r="G78" s="5">
-        <v>16.246500000000001</v>
+        <v>15.2995</v>
       </c>
       <c r="H78" s="5">
-        <v>14.625500000000001</v>
+        <v>14.1029</v>
       </c>
       <c r="I78" s="5">
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <v>-6.9400000000000003E-2</v>
+        <v>-3.6200000000000003E-2</v>
       </c>
     </row>
     <row r="79" spans="3:10" ht="18" thickBot="1">
@@ -10159,25 +10226,25 @@
         <v>2016</v>
       </c>
       <c r="D79" s="3">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="E79" s="4">
-        <v>15.870699999999999</v>
+        <v>14.768700000000001</v>
       </c>
       <c r="F79" s="5">
-        <v>15.848000000000001</v>
+        <v>15.8567</v>
       </c>
       <c r="G79" s="5">
-        <v>16.449200000000001</v>
+        <v>16.246500000000001</v>
       </c>
       <c r="H79" s="5">
-        <v>15.068300000000001</v>
+        <v>14.625500000000001</v>
       </c>
       <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>-1.2999999999999999E-3</v>
+        <v>-6.9400000000000003E-2</v>
       </c>
     </row>
     <row r="80" spans="3:10" ht="18" thickBot="1">
@@ -10186,52 +10253,52 @@
         <v>2016</v>
       </c>
       <c r="D80" s="3">
-        <v>42370</v>
-      </c>
-      <c r="E80" s="7">
-        <v>15.891</v>
+        <v>42401</v>
+      </c>
+      <c r="E80" s="4">
+        <v>15.870699999999999</v>
       </c>
       <c r="F80" s="5">
-        <v>15.476000000000001</v>
+        <v>15.848000000000001</v>
       </c>
       <c r="G80" s="5">
-        <v>17.848400000000002</v>
+        <v>16.449200000000001</v>
       </c>
       <c r="H80" s="5">
-        <v>15.4533</v>
+        <v>15.068300000000001</v>
       </c>
       <c r="I80" s="5">
         <v>0</v>
       </c>
-      <c r="J80" s="8">
-        <v>2.6800000000000001E-2</v>
+      <c r="J80" s="6">
+        <v>-1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="81" spans="3:10" ht="18" thickBot="1">
       <c r="C81">
         <f t="shared" si="5"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D81" s="3">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="E81" s="7">
-        <v>15.4765</v>
+        <v>15.891</v>
       </c>
       <c r="F81" s="5">
-        <v>14.4527</v>
+        <v>15.476000000000001</v>
       </c>
       <c r="G81" s="5">
-        <v>16.038499999999999</v>
+        <v>17.848400000000002</v>
       </c>
       <c r="H81" s="5">
-        <v>14.257199999999999</v>
+        <v>15.4533</v>
       </c>
       <c r="I81" s="5">
         <v>0</v>
       </c>
       <c r="J81" s="8">
-        <v>7.0800000000000002E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="3:10" ht="18" thickBot="1">
@@ -10240,1914 +10307,1941 @@
         <v>2015</v>
       </c>
       <c r="D82" s="3">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="E82" s="7">
-        <v>14.4529</v>
+        <v>15.4765</v>
       </c>
       <c r="F82" s="5">
-        <v>13.8125</v>
+        <v>14.4527</v>
       </c>
       <c r="G82" s="5">
-        <v>14.4954</v>
+        <v>16.038499999999999</v>
       </c>
       <c r="H82" s="5">
-        <v>13.7225</v>
+        <v>14.257199999999999</v>
       </c>
       <c r="I82" s="5">
         <v>0</v>
       </c>
       <c r="J82" s="8">
-        <v>4.5400000000000003E-2</v>
+        <v>7.0800000000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="3:10" ht="18" thickBot="1">
       <c r="C83">
-        <f t="shared" ref="C83:C146" si="10">YEAR(D83)</f>
+        <f t="shared" si="5"/>
         <v>2015</v>
       </c>
       <c r="D83" s="3">
-        <v>42278</v>
-      </c>
-      <c r="E83" s="4">
-        <v>13.8247</v>
+        <v>42309</v>
+      </c>
+      <c r="E83" s="7">
+        <v>14.4529</v>
       </c>
       <c r="F83" s="5">
-        <v>13.8468</v>
+        <v>13.8125</v>
       </c>
       <c r="G83" s="5">
-        <v>14.0237</v>
+        <v>14.4954</v>
       </c>
       <c r="H83" s="5">
-        <v>13.013</v>
+        <v>13.7225</v>
       </c>
       <c r="I83" s="5">
         <v>0</v>
       </c>
-      <c r="J83" s="6">
-        <v>-2.2000000000000001E-3</v>
+      <c r="J83" s="8">
+        <v>4.5400000000000003E-2</v>
       </c>
     </row>
     <row r="84" spans="3:10" ht="18" thickBot="1">
       <c r="C84">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C84:C147" si="8">YEAR(D84)</f>
         <v>2015</v>
       </c>
       <c r="D84" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E84" s="7">
-        <v>13.855600000000001</v>
+        <v>42278</v>
+      </c>
+      <c r="E84" s="4">
+        <v>13.8247</v>
       </c>
       <c r="F84" s="5">
-        <v>13.289099999999999</v>
+        <v>13.8468</v>
       </c>
       <c r="G84" s="5">
-        <v>14.172499999999999</v>
+        <v>14.0237</v>
       </c>
       <c r="H84" s="5">
-        <v>13.172499999999999</v>
+        <v>13.013</v>
       </c>
       <c r="I84" s="5">
         <v>0</v>
       </c>
-      <c r="J84" s="8">
-        <v>4.3400000000000001E-2</v>
+      <c r="J84" s="6">
+        <v>-2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="3:10" ht="18" thickBot="1">
       <c r="C85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D85" s="3">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="E85" s="7">
-        <v>13.2788</v>
+        <v>13.855600000000001</v>
       </c>
       <c r="F85" s="5">
-        <v>12.6942</v>
+        <v>13.289099999999999</v>
       </c>
       <c r="G85" s="5">
-        <v>13.676500000000001</v>
+        <v>14.172499999999999</v>
       </c>
       <c r="H85" s="5">
-        <v>12.6113</v>
+        <v>13.172499999999999</v>
       </c>
       <c r="I85" s="5">
         <v>0</v>
       </c>
       <c r="J85" s="8">
-        <v>4.7699999999999999E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="3:10" ht="18" thickBot="1">
       <c r="C86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D86" s="3">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="E86" s="7">
-        <v>12.6745</v>
+        <v>13.2788</v>
       </c>
       <c r="F86" s="5">
-        <v>12.1685</v>
+        <v>12.6942</v>
       </c>
       <c r="G86" s="5">
-        <v>12.776999999999999</v>
+        <v>13.676500000000001</v>
       </c>
       <c r="H86" s="5">
-        <v>12.1447</v>
+        <v>12.6113</v>
       </c>
       <c r="I86" s="5">
         <v>0</v>
       </c>
       <c r="J86" s="8">
-        <v>4.1500000000000002E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="3:10" ht="18" thickBot="1">
       <c r="C87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D87" s="3">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="E87" s="7">
-        <v>12.1699</v>
+        <v>12.6745</v>
       </c>
       <c r="F87" s="5">
-        <v>12.175000000000001</v>
+        <v>12.1685</v>
       </c>
       <c r="G87" s="5">
-        <v>12.64</v>
+        <v>12.776999999999999</v>
       </c>
       <c r="H87" s="5">
-        <v>12.0535</v>
+        <v>12.1447</v>
       </c>
       <c r="I87" s="5">
         <v>0</v>
       </c>
       <c r="J87" s="8">
-        <v>1.1999999999999999E-3</v>
+        <v>4.1500000000000002E-2</v>
       </c>
     </row>
     <row r="88" spans="3:10" ht="18" thickBot="1">
       <c r="C88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D88" s="3">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="E88" s="7">
-        <v>12.1555</v>
+        <v>12.1699</v>
       </c>
       <c r="F88" s="5">
-        <v>11.910299999999999</v>
+        <v>12.175000000000001</v>
       </c>
       <c r="G88" s="5">
-        <v>12.2088</v>
+        <v>12.64</v>
       </c>
       <c r="H88" s="5">
-        <v>11.7271</v>
+        <v>12.0535</v>
       </c>
       <c r="I88" s="5">
         <v>0</v>
       </c>
       <c r="J88" s="8">
-        <v>2.0400000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="89" spans="3:10" ht="18" thickBot="1">
       <c r="C89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D89" s="3">
-        <v>42095</v>
-      </c>
-      <c r="E89" s="4">
-        <v>11.913</v>
+        <v>42125</v>
+      </c>
+      <c r="E89" s="7">
+        <v>12.1555</v>
       </c>
       <c r="F89" s="5">
-        <v>12.1295</v>
+        <v>11.910299999999999</v>
       </c>
       <c r="G89" s="5">
-        <v>12.3055</v>
+        <v>12.2088</v>
       </c>
       <c r="H89" s="5">
-        <v>11.693</v>
+        <v>11.7271</v>
       </c>
       <c r="I89" s="5">
         <v>0</v>
       </c>
-      <c r="J89" s="6">
-        <v>-1.7899999999999999E-2</v>
+      <c r="J89" s="8">
+        <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="90" spans="3:10" ht="18" thickBot="1">
       <c r="C90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D90" s="3">
-        <v>42064</v>
-      </c>
-      <c r="E90" s="7">
-        <v>12.1305</v>
+        <v>42095</v>
+      </c>
+      <c r="E90" s="4">
+        <v>11.913</v>
       </c>
       <c r="F90" s="5">
-        <v>11.654999999999999</v>
+        <v>12.1295</v>
       </c>
       <c r="G90" s="5">
-        <v>12.529500000000001</v>
+        <v>12.3055</v>
       </c>
       <c r="H90" s="5">
-        <v>11.654999999999999</v>
+        <v>11.693</v>
       </c>
       <c r="I90" s="5">
         <v>0</v>
       </c>
-      <c r="J90" s="8">
-        <v>3.9600000000000003E-2</v>
+      <c r="J90" s="6">
+        <v>-1.7899999999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="3:10" ht="18" thickBot="1">
       <c r="C91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D91" s="3">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="E91" s="7">
-        <v>11.667999999999999</v>
+        <v>12.1305</v>
       </c>
       <c r="F91" s="5">
-        <v>11.6485</v>
+        <v>11.654999999999999</v>
       </c>
       <c r="G91" s="5">
-        <v>11.8995</v>
+        <v>12.529500000000001</v>
       </c>
       <c r="H91" s="5">
-        <v>11.259</v>
+        <v>11.654999999999999</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <v>1.8E-3</v>
+        <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="92" spans="3:10" ht="18" thickBot="1">
       <c r="C92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="D92" s="3">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="E92" s="7">
-        <v>11.646800000000001</v>
+        <v>11.667999999999999</v>
       </c>
       <c r="F92" s="5">
-        <v>11.5753</v>
+        <v>11.6485</v>
       </c>
       <c r="G92" s="5">
-        <v>11.784800000000001</v>
+        <v>11.8995</v>
       </c>
       <c r="H92" s="5">
-        <v>11.3613</v>
+        <v>11.259</v>
       </c>
       <c r="I92" s="5">
         <v>0</v>
       </c>
       <c r="J92" s="8">
-        <v>6.6E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="93" spans="3:10" ht="18" thickBot="1">
       <c r="C93">
-        <f t="shared" si="10"/>
-        <v>2014</v>
+        <f t="shared" si="8"/>
+        <v>2015</v>
       </c>
       <c r="D93" s="3">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="E93" s="7">
-        <v>11.571</v>
+        <v>11.646800000000001</v>
       </c>
       <c r="F93" s="5">
-        <v>11.085000000000001</v>
+        <v>11.5753</v>
       </c>
       <c r="G93" s="5">
-        <v>11.8195</v>
+        <v>11.784800000000001</v>
       </c>
       <c r="H93" s="5">
-        <v>10.961499999999999</v>
+        <v>11.3613</v>
       </c>
       <c r="I93" s="5">
         <v>0</v>
       </c>
       <c r="J93" s="8">
-        <v>4.4299999999999999E-2</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="94" spans="3:10" ht="18" thickBot="1">
       <c r="C94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D94" s="3">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="E94" s="7">
-        <v>11.080500000000001</v>
+        <v>11.571</v>
       </c>
       <c r="F94" s="5">
-        <v>11.045999999999999</v>
+        <v>11.085000000000001</v>
       </c>
       <c r="G94" s="5">
-        <v>11.363</v>
+        <v>11.8195</v>
       </c>
       <c r="H94" s="5">
-        <v>10.9062</v>
+        <v>10.961499999999999</v>
       </c>
       <c r="I94" s="5">
         <v>0</v>
       </c>
       <c r="J94" s="8">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4299999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="3:10" ht="18" thickBot="1">
       <c r="C95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D95" s="3">
-        <v>41913</v>
-      </c>
-      <c r="E95" s="4">
-        <v>11.0395</v>
+        <v>41944</v>
+      </c>
+      <c r="E95" s="7">
+        <v>11.080500000000001</v>
       </c>
       <c r="F95" s="5">
-        <v>11.282500000000001</v>
+        <v>11.045999999999999</v>
       </c>
       <c r="G95" s="5">
-        <v>11.3865</v>
+        <v>11.363</v>
       </c>
       <c r="H95" s="5">
-        <v>10.827</v>
+        <v>10.9062</v>
       </c>
       <c r="I95" s="5">
         <v>0</v>
       </c>
-      <c r="J95" s="6">
-        <v>-2.18E-2</v>
+      <c r="J95" s="8">
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="96" spans="3:10" ht="18" thickBot="1">
       <c r="C96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D96" s="3">
-        <v>41883</v>
-      </c>
-      <c r="E96" s="7">
-        <v>11.285</v>
+        <v>41913</v>
+      </c>
+      <c r="E96" s="4">
+        <v>11.0395</v>
       </c>
       <c r="F96" s="5">
-        <v>10.6645</v>
+        <v>11.282500000000001</v>
       </c>
       <c r="G96" s="5">
-        <v>11.352</v>
+        <v>11.3865</v>
       </c>
       <c r="H96" s="5">
-        <v>10.602499999999999</v>
+        <v>10.827</v>
       </c>
       <c r="I96" s="5">
         <v>0</v>
       </c>
-      <c r="J96" s="8">
-        <v>5.8200000000000002E-2</v>
+      <c r="J96" s="6">
+        <v>-2.18E-2</v>
       </c>
     </row>
     <row r="97" spans="3:10" ht="18" thickBot="1">
       <c r="C97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D97" s="3">
-        <v>41852</v>
-      </c>
-      <c r="E97" s="4">
+        <v>41883</v>
+      </c>
+      <c r="E97" s="7">
+        <v>11.285</v>
+      </c>
+      <c r="F97" s="5">
         <v>10.6645</v>
       </c>
-      <c r="F97" s="5">
-        <v>10.7075</v>
-      </c>
       <c r="G97" s="5">
-        <v>10.836499999999999</v>
+        <v>11.352</v>
       </c>
       <c r="H97" s="5">
-        <v>10.521599999999999</v>
+        <v>10.602499999999999</v>
       </c>
       <c r="I97" s="5">
         <v>0</v>
       </c>
-      <c r="J97" s="6">
-        <v>-3.8999999999999998E-3</v>
+      <c r="J97" s="8">
+        <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="3:10" ht="18" thickBot="1">
       <c r="C98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D98" s="3">
-        <v>41821</v>
-      </c>
-      <c r="E98" s="7">
-        <v>10.7065</v>
+        <v>41852</v>
+      </c>
+      <c r="E98" s="4">
+        <v>10.6645</v>
       </c>
       <c r="F98" s="5">
-        <v>10.6393</v>
+        <v>10.7075</v>
       </c>
       <c r="G98" s="5">
-        <v>10.849</v>
+        <v>10.836499999999999</v>
       </c>
       <c r="H98" s="5">
-        <v>10.465999999999999</v>
+        <v>10.521599999999999</v>
       </c>
       <c r="I98" s="5">
         <v>0</v>
       </c>
-      <c r="J98" s="8">
-        <v>6.4000000000000003E-3</v>
+      <c r="J98" s="6">
+        <v>-3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="99" spans="3:10" ht="18" thickBot="1">
       <c r="C99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D99" s="3">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="E99" s="7">
-        <v>10.638</v>
+        <v>10.7065</v>
       </c>
       <c r="F99" s="5">
-        <v>10.573499999999999</v>
+        <v>10.6393</v>
       </c>
       <c r="G99" s="5">
-        <v>10.864000000000001</v>
+        <v>10.849</v>
       </c>
       <c r="H99" s="5">
-        <v>10.5299</v>
+        <v>10.465999999999999</v>
       </c>
       <c r="I99" s="5">
         <v>0</v>
       </c>
       <c r="J99" s="8">
-        <v>6.3E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="100" spans="3:10" ht="18" thickBot="1">
       <c r="C100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D100" s="3">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="E100" s="7">
-        <v>10.571</v>
+        <v>10.638</v>
       </c>
       <c r="F100" s="5">
-        <v>10.478</v>
+        <v>10.573499999999999</v>
       </c>
       <c r="G100" s="5">
-        <v>10.596500000000001</v>
+        <v>10.864000000000001</v>
       </c>
       <c r="H100" s="5">
-        <v>10.2255</v>
+        <v>10.5299</v>
       </c>
       <c r="I100" s="5">
         <v>0</v>
       </c>
       <c r="J100" s="8">
-        <v>4.5999999999999999E-3</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="101" spans="3:10" ht="18" thickBot="1">
       <c r="C101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D101" s="3">
-        <v>41730</v>
-      </c>
-      <c r="E101" s="4">
-        <v>10.523</v>
+        <v>41760</v>
+      </c>
+      <c r="E101" s="7">
+        <v>10.571</v>
       </c>
       <c r="F101" s="5">
-        <v>10.579499999999999</v>
+        <v>10.478</v>
       </c>
       <c r="G101" s="5">
-        <v>10.733499999999999</v>
+        <v>10.596500000000001</v>
       </c>
       <c r="H101" s="5">
-        <v>10.363</v>
+        <v>10.2255</v>
       </c>
       <c r="I101" s="5">
         <v>0</v>
       </c>
-      <c r="J101" s="6">
-        <v>-8.9999999999999998E-4</v>
+      <c r="J101" s="8">
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="102" spans="3:10" ht="18" thickBot="1">
       <c r="C102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D102" s="3">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="E102" s="4">
-        <v>10.532500000000001</v>
+        <v>10.523</v>
       </c>
       <c r="F102" s="5">
-        <v>10.737500000000001</v>
+        <v>10.579499999999999</v>
       </c>
       <c r="G102" s="5">
-        <v>10.985799999999999</v>
+        <v>10.733499999999999</v>
       </c>
       <c r="H102" s="5">
-        <v>10.4725</v>
+        <v>10.363</v>
       </c>
       <c r="I102" s="5">
         <v>0</v>
       </c>
       <c r="J102" s="6">
-        <v>-2.1000000000000001E-2</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="103" spans="3:10" ht="18" thickBot="1">
       <c r="C103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D103" s="3">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="E103" s="4">
-        <v>10.758699999999999</v>
+        <v>10.532500000000001</v>
       </c>
       <c r="F103" s="5">
-        <v>11.0823</v>
+        <v>10.737500000000001</v>
       </c>
       <c r="G103" s="5">
-        <v>11.2835</v>
+        <v>10.985799999999999</v>
       </c>
       <c r="H103" s="5">
-        <v>10.61</v>
+        <v>10.4725</v>
       </c>
       <c r="I103" s="5">
         <v>0</v>
       </c>
       <c r="J103" s="6">
-        <v>-3.27E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="3:10" ht="18" thickBot="1">
       <c r="C104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="D104" s="3">
-        <v>41640</v>
-      </c>
-      <c r="E104" s="7">
-        <v>11.122199999999999</v>
+        <v>41671</v>
+      </c>
+      <c r="E104" s="4">
+        <v>10.758699999999999</v>
       </c>
       <c r="F104" s="5">
-        <v>10.4619</v>
+        <v>11.0823</v>
       </c>
       <c r="G104" s="5">
-        <v>11.399699999999999</v>
+        <v>11.2835</v>
       </c>
       <c r="H104" s="5">
-        <v>10.4032</v>
+        <v>10.61</v>
       </c>
       <c r="I104" s="5">
         <v>0</v>
       </c>
-      <c r="J104" s="8">
-        <v>5.96E-2</v>
+      <c r="J104" s="6">
+        <v>-3.27E-2</v>
       </c>
     </row>
     <row r="105" spans="3:10" ht="18" thickBot="1">
       <c r="C105">
-        <f t="shared" si="10"/>
-        <v>2013</v>
+        <f t="shared" si="8"/>
+        <v>2014</v>
       </c>
       <c r="D105" s="3">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="E105" s="7">
-        <v>10.497</v>
+        <v>11.122199999999999</v>
       </c>
       <c r="F105" s="5">
-        <v>10.192</v>
+        <v>10.4619</v>
       </c>
       <c r="G105" s="5">
-        <v>10.627599999999999</v>
+        <v>11.399699999999999</v>
       </c>
       <c r="H105" s="5">
-        <v>10.128</v>
+        <v>10.4032</v>
       </c>
       <c r="I105" s="5">
         <v>0</v>
       </c>
       <c r="J105" s="8">
-        <v>3.1600000000000003E-2</v>
+        <v>5.96E-2</v>
       </c>
     </row>
     <row r="106" spans="3:10" ht="18" thickBot="1">
       <c r="C106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D106" s="3">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="E106" s="7">
-        <v>10.175000000000001</v>
+        <v>10.497</v>
       </c>
       <c r="F106" s="5">
-        <v>10.0199</v>
+        <v>10.192</v>
       </c>
       <c r="G106" s="5">
-        <v>10.477</v>
+        <v>10.627599999999999</v>
       </c>
       <c r="H106" s="5">
-        <v>9.9825999999999997</v>
+        <v>10.128</v>
       </c>
       <c r="I106" s="5">
         <v>0</v>
       </c>
       <c r="J106" s="8">
-        <v>1.24E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
     </row>
     <row r="107" spans="3:10" ht="18" thickBot="1">
       <c r="C107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D107" s="3">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="E107" s="7">
-        <v>10.049899999999999</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="F107" s="5">
-        <v>10.071</v>
+        <v>10.0199</v>
       </c>
       <c r="G107" s="5">
-        <v>10.204800000000001</v>
+        <v>10.477</v>
       </c>
       <c r="H107" s="5">
-        <v>9.7149999999999999</v>
+        <v>9.9825999999999997</v>
       </c>
       <c r="I107" s="5">
         <v>0</v>
       </c>
       <c r="J107" s="8">
-        <v>2.2000000000000001E-3</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="108" spans="3:10" ht="18" thickBot="1">
       <c r="C108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D108" s="3">
-        <v>41518</v>
-      </c>
-      <c r="E108" s="4">
-        <v>10.027699999999999</v>
+        <v>41548</v>
+      </c>
+      <c r="E108" s="7">
+        <v>10.049899999999999</v>
       </c>
       <c r="F108" s="5">
-        <v>10.2287</v>
+        <v>10.071</v>
       </c>
       <c r="G108" s="5">
-        <v>10.351699999999999</v>
+        <v>10.204800000000001</v>
       </c>
       <c r="H108" s="5">
-        <v>9.5116999999999994</v>
+        <v>9.7149999999999999</v>
       </c>
       <c r="I108" s="5">
         <v>0</v>
       </c>
-      <c r="J108" s="6">
-        <v>-2.4500000000000001E-2</v>
+      <c r="J108" s="8">
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="109" spans="3:10" ht="18" thickBot="1">
       <c r="C109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D109" s="3">
-        <v>41487</v>
-      </c>
-      <c r="E109" s="7">
-        <v>10.28</v>
+        <v>41518</v>
+      </c>
+      <c r="E109" s="4">
+        <v>10.027699999999999</v>
       </c>
       <c r="F109" s="5">
-        <v>9.875</v>
+        <v>10.2287</v>
       </c>
       <c r="G109" s="5">
-        <v>10.5548</v>
+        <v>10.351699999999999</v>
       </c>
       <c r="H109" s="5">
-        <v>9.75</v>
+        <v>9.5116999999999994</v>
       </c>
       <c r="I109" s="5">
         <v>0</v>
       </c>
-      <c r="J109" s="8">
-        <v>4.1799999999999997E-2</v>
+      <c r="J109" s="6">
+        <v>-2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="110" spans="3:10" ht="18" thickBot="1">
       <c r="C110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D110" s="3">
-        <v>41456</v>
-      </c>
-      <c r="E110" s="4">
-        <v>9.8680000000000003</v>
+        <v>41487</v>
+      </c>
+      <c r="E110" s="7">
+        <v>10.28</v>
       </c>
       <c r="F110" s="5">
-        <v>9.9297000000000004</v>
+        <v>9.875</v>
       </c>
       <c r="G110" s="5">
-        <v>10.347</v>
+        <v>10.5548</v>
       </c>
       <c r="H110" s="5">
-        <v>9.6237999999999992</v>
+        <v>9.75</v>
       </c>
       <c r="I110" s="5">
         <v>0</v>
       </c>
-      <c r="J110" s="6">
-        <v>-1.1999999999999999E-3</v>
+      <c r="J110" s="8">
+        <v>4.1799999999999997E-2</v>
       </c>
     </row>
     <row r="111" spans="3:10" ht="18" thickBot="1">
       <c r="C111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D111" s="3">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="E111" s="4">
-        <v>9.8800000000000008</v>
+        <v>9.8680000000000003</v>
       </c>
       <c r="F111" s="5">
-        <v>10.065</v>
+        <v>9.9297000000000004</v>
       </c>
       <c r="G111" s="5">
-        <v>10.41</v>
+        <v>10.347</v>
       </c>
       <c r="H111" s="5">
-        <v>9.68</v>
+        <v>9.6237999999999992</v>
       </c>
       <c r="I111" s="5">
         <v>0</v>
       </c>
       <c r="J111" s="6">
-        <v>-2.1000000000000001E-2</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="112" spans="3:10" ht="18" thickBot="1">
       <c r="C112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D112" s="3">
-        <v>41395</v>
-      </c>
-      <c r="E112" s="7">
-        <v>10.0915</v>
+        <v>41426</v>
+      </c>
+      <c r="E112" s="4">
+        <v>9.8800000000000008</v>
       </c>
       <c r="F112" s="5">
-        <v>9.0135000000000005</v>
+        <v>10.065</v>
       </c>
       <c r="G112" s="5">
-        <v>10.33</v>
+        <v>10.41</v>
       </c>
       <c r="H112" s="5">
-        <v>8.8953000000000007</v>
+        <v>9.68</v>
       </c>
       <c r="I112" s="5">
         <v>0</v>
       </c>
-      <c r="J112" s="8">
-        <v>0.12529999999999999</v>
+      <c r="J112" s="6">
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="3:10" ht="18" thickBot="1">
       <c r="C113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D113" s="3">
-        <v>41365</v>
-      </c>
-      <c r="E113" s="4">
-        <v>8.9681999999999995</v>
+        <v>41395</v>
+      </c>
+      <c r="E113" s="7">
+        <v>10.0915</v>
       </c>
       <c r="F113" s="5">
-        <v>9.2128999999999994</v>
+        <v>9.0135000000000005</v>
       </c>
       <c r="G113" s="5">
-        <v>9.3125</v>
+        <v>10.33</v>
       </c>
       <c r="H113" s="5">
-        <v>8.827</v>
+        <v>8.8953000000000007</v>
       </c>
       <c r="I113" s="5">
         <v>0</v>
       </c>
-      <c r="J113" s="6">
-        <v>-2.9000000000000001E-2</v>
+      <c r="J113" s="8">
+        <v>0.12529999999999999</v>
       </c>
     </row>
     <row r="114" spans="3:10" ht="18" thickBot="1">
       <c r="C114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D114" s="3">
-        <v>41334</v>
-      </c>
-      <c r="E114" s="7">
-        <v>9.2363</v>
+        <v>41365</v>
+      </c>
+      <c r="E114" s="4">
+        <v>8.9681999999999995</v>
       </c>
       <c r="F114" s="5">
-        <v>8.9938000000000002</v>
+        <v>9.2128999999999994</v>
       </c>
       <c r="G114" s="5">
-        <v>9.3834</v>
+        <v>9.3125</v>
       </c>
       <c r="H114" s="5">
-        <v>8.9838000000000005</v>
+        <v>8.827</v>
       </c>
       <c r="I114" s="5">
         <v>0</v>
       </c>
-      <c r="J114" s="8">
-        <v>2.3400000000000001E-2</v>
+      <c r="J114" s="6">
+        <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="115" spans="3:10" ht="18" thickBot="1">
       <c r="C115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D115" s="3">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="E115" s="7">
-        <v>9.0250000000000004</v>
+        <v>9.2363</v>
       </c>
       <c r="F115" s="5">
-        <v>8.9857999999999993</v>
+        <v>8.9938000000000002</v>
       </c>
       <c r="G115" s="5">
-        <v>9.0779999999999994</v>
+        <v>9.3834</v>
       </c>
       <c r="H115" s="5">
-        <v>8.7650000000000006</v>
+        <v>8.9838000000000005</v>
       </c>
       <c r="I115" s="5">
         <v>0</v>
       </c>
       <c r="J115" s="8">
-        <v>7.6E-3</v>
+        <v>2.3400000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="3:10" ht="18" thickBot="1">
       <c r="C116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="D116" s="3">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="E116" s="7">
-        <v>8.9565999999999999</v>
+        <v>9.0250000000000004</v>
       </c>
       <c r="F116" s="5">
-        <v>8.4563000000000006</v>
+        <v>8.9857999999999993</v>
       </c>
       <c r="G116" s="5">
-        <v>9.1623000000000001</v>
+        <v>9.0779999999999994</v>
       </c>
       <c r="H116" s="5">
-        <v>8.3836999999999993</v>
+        <v>8.7650000000000006</v>
       </c>
       <c r="I116" s="5">
         <v>0</v>
       </c>
       <c r="J116" s="8">
-        <v>5.8999999999999997E-2</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="117" spans="3:10" ht="18" thickBot="1">
       <c r="C117">
-        <f t="shared" si="10"/>
-        <v>2012</v>
+        <f t="shared" si="8"/>
+        <v>2013</v>
       </c>
       <c r="D117" s="3">
-        <v>41244</v>
-      </c>
-      <c r="E117" s="4">
-        <v>8.4573999999999998</v>
+        <v>41275</v>
+      </c>
+      <c r="E117" s="7">
+        <v>8.9565999999999999</v>
       </c>
       <c r="F117" s="5">
-        <v>8.8621999999999996</v>
+        <v>8.4563000000000006</v>
       </c>
       <c r="G117" s="5">
-        <v>8.9305000000000003</v>
+        <v>9.1623000000000001</v>
       </c>
       <c r="H117" s="5">
-        <v>8.3916000000000004</v>
+        <v>8.3836999999999993</v>
       </c>
       <c r="I117" s="5">
         <v>0</v>
       </c>
-      <c r="J117" s="6">
-        <v>-5.0099999999999999E-2</v>
+      <c r="J117" s="8">
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="118" spans="3:10" ht="18" thickBot="1">
       <c r="C118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D118" s="3">
-        <v>41214</v>
-      </c>
-      <c r="E118" s="7">
-        <v>8.9036000000000008</v>
+        <v>41244</v>
+      </c>
+      <c r="E118" s="4">
+        <v>8.4573999999999998</v>
       </c>
       <c r="F118" s="5">
-        <v>8.6868999999999996</v>
+        <v>8.8621999999999996</v>
       </c>
       <c r="G118" s="5">
-        <v>9.0249000000000006</v>
+        <v>8.9305000000000003</v>
       </c>
       <c r="H118" s="5">
-        <v>8.5637000000000008</v>
+        <v>8.3916000000000004</v>
       </c>
       <c r="I118" s="5">
         <v>0</v>
       </c>
-      <c r="J118" s="8">
-        <v>2.6700000000000002E-2</v>
+      <c r="J118" s="6">
+        <v>-5.0099999999999999E-2</v>
       </c>
     </row>
     <row r="119" spans="3:10" ht="18" thickBot="1">
       <c r="C119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D119" s="3">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="E119" s="7">
-        <v>8.6719000000000008</v>
+        <v>8.9036000000000008</v>
       </c>
       <c r="F119" s="5">
-        <v>8.3033000000000001</v>
+        <v>8.6868999999999996</v>
       </c>
       <c r="G119" s="5">
-        <v>8.9956999999999994</v>
+        <v>9.0249000000000006</v>
       </c>
       <c r="H119" s="5">
-        <v>8.1827000000000005</v>
+        <v>8.5637000000000008</v>
       </c>
       <c r="I119" s="5">
         <v>0</v>
       </c>
       <c r="J119" s="8">
-        <v>4.3400000000000001E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
     </row>
     <row r="120" spans="3:10" ht="18" thickBot="1">
       <c r="C120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D120" s="3">
-        <v>41153</v>
-      </c>
-      <c r="E120" s="4">
-        <v>8.3110999999999997</v>
+        <v>41183</v>
+      </c>
+      <c r="E120" s="7">
+        <v>8.6719000000000008</v>
       </c>
       <c r="F120" s="5">
-        <v>8.3902000000000001</v>
+        <v>8.3033000000000001</v>
       </c>
       <c r="G120" s="5">
-        <v>8.4803999999999995</v>
+        <v>8.9956999999999994</v>
       </c>
       <c r="H120" s="5">
-        <v>8.0890000000000004</v>
+        <v>8.1827000000000005</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
-      <c r="J120" s="6">
-        <v>-1.06E-2</v>
+      <c r="J120" s="8">
+        <v>4.3400000000000001E-2</v>
       </c>
     </row>
     <row r="121" spans="3:10" ht="18" thickBot="1">
       <c r="C121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D121" s="3">
-        <v>41122</v>
-      </c>
-      <c r="E121" s="7">
-        <v>8.4</v>
+        <v>41153</v>
+      </c>
+      <c r="E121" s="4">
+        <v>8.3110999999999997</v>
       </c>
       <c r="F121" s="5">
-        <v>8.2438000000000002</v>
+        <v>8.3902000000000001</v>
       </c>
       <c r="G121" s="5">
-        <v>8.5021000000000004</v>
+        <v>8.4803999999999995</v>
       </c>
       <c r="H121" s="5">
-        <v>8.0050000000000008</v>
+        <v>8.0890000000000004</v>
       </c>
       <c r="I121" s="5">
         <v>0</v>
       </c>
-      <c r="J121" s="8">
-        <v>1.7100000000000001E-2</v>
+      <c r="J121" s="6">
+        <v>-1.06E-2</v>
       </c>
     </row>
     <row r="122" spans="3:10" ht="18" thickBot="1">
       <c r="C122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D122" s="3">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="E122" s="7">
-        <v>8.2588000000000008</v>
+        <v>8.4</v>
       </c>
       <c r="F122" s="5">
-        <v>8.2065000000000001</v>
+        <v>8.2438000000000002</v>
       </c>
       <c r="G122" s="5">
-        <v>8.5982000000000003</v>
+        <v>8.5021000000000004</v>
       </c>
       <c r="H122" s="5">
-        <v>8.06</v>
+        <v>8.0050000000000008</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
       </c>
       <c r="J122" s="8">
-        <v>1.15E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="3:10" ht="18" thickBot="1">
       <c r="C123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D123" s="3">
-        <v>41061</v>
-      </c>
-      <c r="E123" s="4">
-        <v>8.1649999999999991</v>
+        <v>41091</v>
+      </c>
+      <c r="E123" s="7">
+        <v>8.2588000000000008</v>
       </c>
       <c r="F123" s="5">
-        <v>8.4749999999999996</v>
+        <v>8.2065000000000001</v>
       </c>
       <c r="G123" s="5">
-        <v>8.7104999999999997</v>
+        <v>8.5982000000000003</v>
       </c>
       <c r="H123" s="5">
-        <v>8.125</v>
+        <v>8.06</v>
       </c>
       <c r="I123" s="5">
         <v>0</v>
       </c>
-      <c r="J123" s="6">
-        <v>-4.0300000000000002E-2</v>
+      <c r="J123" s="8">
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="124" spans="3:10" ht="18" thickBot="1">
       <c r="C124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D124" s="3">
-        <v>41030</v>
-      </c>
-      <c r="E124" s="7">
-        <v>8.5079999999999991</v>
+        <v>41061</v>
+      </c>
+      <c r="E124" s="4">
+        <v>8.1649999999999991</v>
       </c>
       <c r="F124" s="5">
-        <v>7.7736000000000001</v>
+        <v>8.4749999999999996</v>
       </c>
       <c r="G124" s="5">
-        <v>8.5891999999999999</v>
+        <v>8.7104999999999997</v>
       </c>
       <c r="H124" s="5">
-        <v>7.6449999999999996</v>
+        <v>8.125</v>
       </c>
       <c r="I124" s="5">
         <v>0</v>
       </c>
-      <c r="J124" s="8">
-        <v>9.5299999999999996E-2</v>
+      <c r="J124" s="6">
+        <v>-4.0300000000000002E-2</v>
       </c>
     </row>
     <row r="125" spans="3:10" ht="18" thickBot="1">
       <c r="C125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D125" s="3">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="E125" s="7">
-        <v>7.7678000000000003</v>
+        <v>8.5079999999999991</v>
       </c>
       <c r="F125" s="5">
-        <v>7.6333000000000002</v>
+        <v>7.7736000000000001</v>
       </c>
       <c r="G125" s="5">
-        <v>8.0577000000000005</v>
+        <v>8.5891999999999999</v>
       </c>
       <c r="H125" s="5">
-        <v>7.5773999999999999</v>
+        <v>7.6449999999999996</v>
       </c>
       <c r="I125" s="5">
         <v>0</v>
       </c>
       <c r="J125" s="8">
-        <v>1.24E-2</v>
+        <v>9.5299999999999996E-2</v>
       </c>
     </row>
     <row r="126" spans="3:10" ht="18" thickBot="1">
       <c r="C126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D126" s="3">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="E126" s="7">
-        <v>7.6725000000000003</v>
+        <v>7.7678000000000003</v>
       </c>
       <c r="F126" s="5">
-        <v>7.5235000000000003</v>
+        <v>7.6333000000000002</v>
       </c>
       <c r="G126" s="5">
-        <v>7.8040000000000003</v>
+        <v>8.0577000000000005</v>
       </c>
       <c r="H126" s="5">
-        <v>7.4088000000000003</v>
+        <v>7.5773999999999999</v>
       </c>
       <c r="I126" s="5">
         <v>0</v>
       </c>
       <c r="J126" s="8">
-        <v>2.23E-2</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="127" spans="3:10" ht="18" thickBot="1">
       <c r="C127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D127" s="3">
-        <v>40940</v>
-      </c>
-      <c r="E127" s="4">
-        <v>7.5048000000000004</v>
+        <v>40969</v>
+      </c>
+      <c r="E127" s="7">
+        <v>7.6725000000000003</v>
       </c>
       <c r="F127" s="5">
-        <v>7.7948000000000004</v>
+        <v>7.5235000000000003</v>
       </c>
       <c r="G127" s="5">
-        <v>7.9009</v>
+        <v>7.8040000000000003</v>
       </c>
       <c r="H127" s="5">
-        <v>7.37</v>
+        <v>7.4088000000000003</v>
       </c>
       <c r="I127" s="5">
         <v>0</v>
       </c>
-      <c r="J127" s="6">
-        <v>-3.9699999999999999E-2</v>
+      <c r="J127" s="8">
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="128" spans="3:10" ht="18" thickBot="1">
       <c r="C128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="D128" s="3">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="E128" s="4">
-        <v>7.8150000000000004</v>
+        <v>7.5048000000000004</v>
       </c>
       <c r="F128" s="5">
-        <v>8.0649999999999995</v>
+        <v>7.7948000000000004</v>
       </c>
       <c r="G128" s="5">
-        <v>8.2420000000000009</v>
+        <v>7.9009</v>
       </c>
       <c r="H128" s="5">
-        <v>7.6993</v>
+        <v>7.37</v>
       </c>
       <c r="I128" s="5">
         <v>0</v>
       </c>
       <c r="J128" s="6">
-        <v>-3.4000000000000002E-2</v>
+        <v>-3.9699999999999999E-2</v>
       </c>
     </row>
     <row r="129" spans="3:10" ht="18" thickBot="1">
       <c r="C129">
-        <f t="shared" si="10"/>
-        <v>2011</v>
+        <f t="shared" si="8"/>
+        <v>2012</v>
       </c>
       <c r="D129" s="3">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="E129" s="4">
-        <v>8.0899000000000001</v>
+        <v>7.8150000000000004</v>
       </c>
       <c r="F129" s="5">
-        <v>8.1356999999999999</v>
+        <v>8.0649999999999995</v>
       </c>
       <c r="G129" s="5">
-        <v>8.4771000000000001</v>
+        <v>8.2420000000000009</v>
       </c>
       <c r="H129" s="5">
-        <v>7.9337</v>
+        <v>7.6993</v>
       </c>
       <c r="I129" s="5">
         <v>0</v>
       </c>
       <c r="J129" s="6">
-        <v>-3.5000000000000001E-3</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="130" spans="3:10" ht="18" thickBot="1">
       <c r="C130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D130" s="3">
-        <v>40848</v>
-      </c>
-      <c r="E130" s="7">
-        <v>8.1181999999999999</v>
+        <v>40878</v>
+      </c>
+      <c r="E130" s="4">
+        <v>8.0899000000000001</v>
       </c>
       <c r="F130" s="5">
-        <v>7.9276999999999997</v>
+        <v>8.1356999999999999</v>
       </c>
       <c r="G130" s="5">
-        <v>8.6091999999999995</v>
+        <v>8.4771000000000001</v>
       </c>
       <c r="H130" s="5">
-        <v>7.7466999999999997</v>
+        <v>7.9337</v>
       </c>
       <c r="I130" s="5">
         <v>0</v>
       </c>
-      <c r="J130" s="8">
-        <v>2.0899999999999998E-2</v>
+      <c r="J130" s="6">
+        <v>-3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="131" spans="3:10" ht="18" thickBot="1">
       <c r="C131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D131" s="3">
-        <v>40817</v>
-      </c>
-      <c r="E131" s="4">
-        <v>7.9522000000000004</v>
+        <v>40848</v>
+      </c>
+      <c r="E131" s="7">
+        <v>8.1181999999999999</v>
       </c>
       <c r="F131" s="5">
-        <v>8.1026000000000007</v>
+        <v>7.9276999999999997</v>
       </c>
       <c r="G131" s="5">
-        <v>8.3622999999999994</v>
+        <v>8.6091999999999995</v>
       </c>
       <c r="H131" s="5">
-        <v>7.6409000000000002</v>
+        <v>7.7466999999999997</v>
       </c>
       <c r="I131" s="5">
         <v>0</v>
       </c>
-      <c r="J131" s="6">
-        <v>-1.78E-2</v>
+      <c r="J131" s="8">
+        <v>2.0899999999999998E-2</v>
       </c>
     </row>
     <row r="132" spans="3:10" ht="18" thickBot="1">
       <c r="C132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D132" s="3">
-        <v>40787</v>
-      </c>
-      <c r="E132" s="7">
-        <v>8.0962999999999994</v>
+        <v>40817</v>
+      </c>
+      <c r="E132" s="4">
+        <v>7.9522000000000004</v>
       </c>
       <c r="F132" s="5">
-        <v>7.0164999999999997</v>
+        <v>8.1026000000000007</v>
       </c>
       <c r="G132" s="5">
-        <v>8.5299999999999994</v>
+        <v>8.3622999999999994</v>
       </c>
       <c r="H132" s="5">
-        <v>6.97</v>
+        <v>7.6409000000000002</v>
       </c>
       <c r="I132" s="5">
         <v>0</v>
       </c>
-      <c r="J132" s="8">
-        <v>0.15690000000000001</v>
+      <c r="J132" s="6">
+        <v>-1.78E-2</v>
       </c>
     </row>
     <row r="133" spans="3:10" ht="18" thickBot="1">
       <c r="C133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D133" s="3">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="E133" s="7">
-        <v>6.9981999999999998</v>
+        <v>8.0962999999999994</v>
       </c>
       <c r="F133" s="5">
-        <v>6.6913</v>
+        <v>7.0164999999999997</v>
       </c>
       <c r="G133" s="5">
-        <v>7.5098000000000003</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H133" s="5">
-        <v>6.6116999999999999</v>
+        <v>6.97</v>
       </c>
       <c r="I133" s="5">
         <v>0</v>
       </c>
       <c r="J133" s="8">
-        <v>4.5699999999999998E-2</v>
+        <v>0.15690000000000001</v>
       </c>
     </row>
     <row r="134" spans="3:10" ht="18" thickBot="1">
       <c r="C134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D134" s="3">
-        <v>40725</v>
-      </c>
-      <c r="E134" s="4">
-        <v>6.6924999999999999</v>
+        <v>40756</v>
+      </c>
+      <c r="E134" s="7">
+        <v>6.9981999999999998</v>
       </c>
       <c r="F134" s="5">
-        <v>6.7629999999999999</v>
+        <v>6.6913</v>
       </c>
       <c r="G134" s="5">
-        <v>7.0198</v>
+        <v>7.5098000000000003</v>
       </c>
       <c r="H134" s="5">
-        <v>6.6036000000000001</v>
+        <v>6.6116999999999999</v>
       </c>
       <c r="I134" s="5">
         <v>0</v>
       </c>
-      <c r="J134" s="6">
-        <v>-1.17E-2</v>
+      <c r="J134" s="8">
+        <v>4.5699999999999998E-2</v>
       </c>
     </row>
     <row r="135" spans="3:10" ht="18" thickBot="1">
       <c r="C135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D135" s="3">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="E135" s="4">
-        <v>6.7714999999999996</v>
+        <v>6.6924999999999999</v>
       </c>
       <c r="F135" s="5">
-        <v>6.8277000000000001</v>
+        <v>6.7629999999999999</v>
       </c>
       <c r="G135" s="5">
-        <v>6.9683000000000002</v>
+        <v>7.0198</v>
       </c>
       <c r="H135" s="5">
-        <v>6.6734999999999998</v>
+        <v>6.6036000000000001</v>
       </c>
       <c r="I135" s="5">
         <v>0</v>
       </c>
       <c r="J135" s="6">
-        <v>-5.1999999999999998E-3</v>
+        <v>-1.17E-2</v>
       </c>
     </row>
     <row r="136" spans="3:10" ht="18" thickBot="1">
       <c r="C136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D136" s="3">
-        <v>40664</v>
-      </c>
-      <c r="E136" s="7">
-        <v>6.8067000000000002</v>
+        <v>40695</v>
+      </c>
+      <c r="E136" s="4">
+        <v>6.7714999999999996</v>
       </c>
       <c r="F136" s="5">
-        <v>6.5655000000000001</v>
+        <v>6.8277000000000001</v>
       </c>
       <c r="G136" s="5">
-        <v>7.0755999999999997</v>
+        <v>6.9683000000000002</v>
       </c>
       <c r="H136" s="5">
-        <v>6.5381999999999998</v>
+        <v>6.6734999999999998</v>
       </c>
       <c r="I136" s="5">
         <v>0</v>
       </c>
-      <c r="J136" s="8">
-        <v>3.5700000000000003E-2</v>
+      <c r="J136" s="6">
+        <v>-5.1999999999999998E-3</v>
       </c>
     </row>
     <row r="137" spans="3:10" ht="18" thickBot="1">
       <c r="C137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D137" s="3">
-        <v>40634</v>
-      </c>
-      <c r="E137" s="4">
-        <v>6.5719000000000003</v>
+        <v>40664</v>
+      </c>
+      <c r="E137" s="7">
+        <v>6.8067000000000002</v>
       </c>
       <c r="F137" s="5">
-        <v>6.7739000000000003</v>
+        <v>6.5655000000000001</v>
       </c>
       <c r="G137" s="5">
-        <v>6.9077999999999999</v>
+        <v>7.0755999999999997</v>
       </c>
       <c r="H137" s="5">
-        <v>6.5407999999999999</v>
+        <v>6.5381999999999998</v>
       </c>
       <c r="I137" s="5">
         <v>0</v>
       </c>
-      <c r="J137" s="6">
-        <v>-2.9600000000000001E-2</v>
+      <c r="J137" s="8">
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="138" spans="3:10" ht="18" thickBot="1">
       <c r="C138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D138" s="3">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="E138" s="4">
-        <v>6.7721</v>
+        <v>6.5719000000000003</v>
       </c>
       <c r="F138" s="5">
-        <v>6.9577999999999998</v>
+        <v>6.7739000000000003</v>
       </c>
       <c r="G138" s="5">
-        <v>7.1916000000000002</v>
+        <v>6.9077999999999999</v>
       </c>
       <c r="H138" s="5">
-        <v>6.7164999999999999</v>
+        <v>6.5407999999999999</v>
       </c>
       <c r="I138" s="5">
         <v>0</v>
       </c>
       <c r="J138" s="6">
-        <v>-2.75E-2</v>
+        <v>-2.9600000000000001E-2</v>
       </c>
     </row>
     <row r="139" spans="3:10" ht="18" thickBot="1">
       <c r="C139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D139" s="3">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="E139" s="4">
-        <v>6.9634999999999998</v>
+        <v>6.7721</v>
       </c>
       <c r="F139" s="5">
-        <v>7.2205000000000004</v>
+        <v>6.9577999999999998</v>
       </c>
       <c r="G139" s="5">
-        <v>7.4027000000000003</v>
+        <v>7.1916000000000002</v>
       </c>
       <c r="H139" s="5">
-        <v>6.9355000000000002</v>
+        <v>6.7164999999999999</v>
       </c>
       <c r="I139" s="5">
         <v>0</v>
       </c>
       <c r="J139" s="6">
-        <v>-3.1600000000000003E-2</v>
+        <v>-2.75E-2</v>
       </c>
     </row>
     <row r="140" spans="3:10" ht="18" thickBot="1">
       <c r="C140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="D140" s="3">
-        <v>40544</v>
-      </c>
-      <c r="E140" s="7">
-        <v>7.1905000000000001</v>
+        <v>40575</v>
+      </c>
+      <c r="E140" s="4">
+        <v>6.9634999999999998</v>
       </c>
       <c r="F140" s="5">
-        <v>6.585</v>
+        <v>7.2205000000000004</v>
       </c>
       <c r="G140" s="5">
-        <v>7.2135999999999996</v>
+        <v>7.4027000000000003</v>
       </c>
       <c r="H140" s="5">
-        <v>6.5449999999999999</v>
+        <v>6.9355000000000002</v>
       </c>
       <c r="I140" s="5">
         <v>0</v>
       </c>
-      <c r="J140" s="8">
-        <v>8.6300000000000002E-2</v>
+      <c r="J140" s="6">
+        <v>-3.1600000000000003E-2</v>
       </c>
     </row>
     <row r="141" spans="3:10" ht="18" thickBot="1">
       <c r="C141">
-        <f t="shared" si="10"/>
-        <v>2010</v>
+        <f t="shared" si="8"/>
+        <v>2011</v>
       </c>
       <c r="D141" s="3">
-        <v>40513</v>
-      </c>
-      <c r="E141" s="4">
-        <v>6.6195000000000004</v>
+        <v>40544</v>
+      </c>
+      <c r="E141" s="7">
+        <v>7.1905000000000001</v>
       </c>
       <c r="F141" s="5">
-        <v>7.1052999999999997</v>
+        <v>6.585</v>
       </c>
       <c r="G141" s="5">
-        <v>7.1315</v>
+        <v>7.2135999999999996</v>
       </c>
       <c r="H141" s="5">
-        <v>6.5374999999999996</v>
+        <v>6.5449999999999999</v>
       </c>
       <c r="I141" s="5">
         <v>0</v>
       </c>
-      <c r="J141" s="6">
-        <v>-6.88E-2</v>
+      <c r="J141" s="8">
+        <v>8.6300000000000002E-2</v>
       </c>
     </row>
     <row r="142" spans="3:10" ht="18" thickBot="1">
       <c r="C142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2010</v>
       </c>
       <c r="D142" s="3">
-        <v>40483</v>
-      </c>
-      <c r="E142" s="7">
-        <v>7.1087999999999996</v>
+        <v>40513</v>
+      </c>
+      <c r="E142" s="4">
+        <v>6.6195000000000004</v>
       </c>
       <c r="F142" s="5">
-        <v>6.98</v>
+        <v>7.1052999999999997</v>
       </c>
       <c r="G142" s="5">
-        <v>7.2286000000000001</v>
+        <v>7.1315</v>
       </c>
       <c r="H142" s="5">
-        <v>6.7603999999999997</v>
+        <v>6.5374999999999996</v>
       </c>
       <c r="I142" s="5">
         <v>0</v>
       </c>
-      <c r="J142" s="8">
-        <v>1.5699999999999999E-2</v>
+      <c r="J142" s="6">
+        <v>-6.88E-2</v>
       </c>
     </row>
     <row r="143" spans="3:10" ht="18" thickBot="1">
       <c r="C143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2010</v>
       </c>
       <c r="D143" s="3">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="E143" s="7">
-        <v>6.9988999999999999</v>
+        <v>7.1087999999999996</v>
       </c>
       <c r="F143" s="5">
-        <v>6.9744999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="G143" s="5">
-        <v>7.0987999999999998</v>
+        <v>7.2286000000000001</v>
       </c>
       <c r="H143" s="5">
-        <v>6.734</v>
+        <v>6.7603999999999997</v>
       </c>
       <c r="I143" s="5">
         <v>0</v>
       </c>
       <c r="J143" s="8">
-        <v>4.1000000000000003E-3</v>
+        <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="3:10" ht="18" thickBot="1">
       <c r="C144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2010</v>
       </c>
       <c r="D144" s="3">
-        <v>40422</v>
-      </c>
-      <c r="E144" s="4">
-        <v>6.97</v>
+        <v>40452</v>
+      </c>
+      <c r="E144" s="7">
+        <v>6.9988999999999999</v>
       </c>
       <c r="F144" s="5">
-        <v>7.3766999999999996</v>
+        <v>6.9744999999999999</v>
       </c>
       <c r="G144" s="5">
-        <v>7.4009999999999998</v>
+        <v>7.0987999999999998</v>
       </c>
       <c r="H144" s="5">
-        <v>6.9050000000000002</v>
+        <v>6.734</v>
       </c>
       <c r="I144" s="5">
         <v>0</v>
       </c>
-      <c r="J144" s="6">
-        <v>-5.5500000000000001E-2</v>
+      <c r="J144" s="8">
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="145" spans="3:10" ht="18" thickBot="1">
       <c r="C145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2010</v>
       </c>
       <c r="D145" s="3">
-        <v>40391</v>
-      </c>
-      <c r="E145" s="7">
-        <v>7.3795000000000002</v>
+        <v>40422</v>
+      </c>
+      <c r="E145" s="4">
+        <v>6.97</v>
       </c>
       <c r="F145" s="5">
-        <v>7.3042999999999996</v>
+        <v>7.3766999999999996</v>
       </c>
       <c r="G145" s="5">
-        <v>7.4496000000000002</v>
+        <v>7.4009999999999998</v>
       </c>
       <c r="H145" s="5">
-        <v>7.1394000000000002</v>
+        <v>6.9050000000000002</v>
       </c>
       <c r="I145" s="5">
         <v>0</v>
       </c>
-      <c r="J145" s="8">
-        <v>1.1299999999999999E-2</v>
+      <c r="J145" s="6">
+        <v>-5.5500000000000001E-2</v>
       </c>
     </row>
     <row r="146" spans="3:10" ht="18" thickBot="1">
       <c r="C146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2010</v>
       </c>
       <c r="D146" s="3">
-        <v>40360</v>
-      </c>
-      <c r="E146" s="4">
-        <v>7.2972000000000001</v>
+        <v>40391</v>
+      </c>
+      <c r="E146" s="7">
+        <v>7.3795000000000002</v>
       </c>
       <c r="F146" s="5">
-        <v>7.6604000000000001</v>
+        <v>7.3042999999999996</v>
       </c>
       <c r="G146" s="5">
-        <v>7.7892999999999999</v>
+        <v>7.4496000000000002</v>
       </c>
       <c r="H146" s="5">
-        <v>7.2408999999999999</v>
+        <v>7.1394000000000002</v>
       </c>
       <c r="I146" s="5">
         <v>0</v>
       </c>
-      <c r="J146" s="6">
-        <v>-4.8899999999999999E-2</v>
+      <c r="J146" s="8">
+        <v>1.1299999999999999E-2</v>
       </c>
     </row>
     <row r="147" spans="3:10" ht="18" thickBot="1">
       <c r="C147">
-        <f t="shared" ref="C147:C152" si="11">YEAR(D147)</f>
+        <f t="shared" si="8"/>
         <v>2010</v>
       </c>
       <c r="D147" s="3">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="E147" s="4">
-        <v>7.6725000000000003</v>
+        <v>7.2972000000000001</v>
       </c>
       <c r="F147" s="5">
-        <v>7.6948999999999996</v>
+        <v>7.6604000000000001</v>
       </c>
       <c r="G147" s="5">
-        <v>7.86</v>
+        <v>7.7892999999999999</v>
       </c>
       <c r="H147" s="5">
-        <v>7.3674999999999997</v>
+        <v>7.2408999999999999</v>
       </c>
       <c r="I147" s="5">
         <v>0</v>
       </c>
       <c r="J147" s="6">
-        <v>-2.9999999999999997E-4</v>
+        <v>-4.8899999999999999E-2</v>
       </c>
     </row>
     <row r="148" spans="3:10" ht="18" thickBot="1">
       <c r="C148">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C148:C153" si="9">YEAR(D148)</f>
         <v>2010</v>
       </c>
       <c r="D148" s="3">
-        <v>40299</v>
-      </c>
-      <c r="E148" s="7">
-        <v>7.6749000000000001</v>
+        <v>40330</v>
+      </c>
+      <c r="E148" s="4">
+        <v>7.6725000000000003</v>
       </c>
       <c r="F148" s="5">
-        <v>7.37</v>
+        <v>7.6948999999999996</v>
       </c>
       <c r="G148" s="5">
-        <v>8.109</v>
+        <v>7.86</v>
       </c>
       <c r="H148" s="5">
-        <v>7.335</v>
+        <v>7.3674999999999997</v>
       </c>
       <c r="I148" s="5">
         <v>0</v>
       </c>
-      <c r="J148" s="8">
-        <v>3.8899999999999997E-2</v>
+      <c r="J148" s="6">
+        <v>-2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="149" spans="3:10" ht="18" thickBot="1">
       <c r="C149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2010</v>
       </c>
       <c r="D149" s="3">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="E149" s="7">
-        <v>7.3872</v>
+        <v>7.6749000000000001</v>
       </c>
       <c r="F149" s="5">
-        <v>7.2877000000000001</v>
+        <v>7.37</v>
       </c>
       <c r="G149" s="5">
-        <v>7.5312000000000001</v>
+        <v>8.109</v>
       </c>
       <c r="H149" s="5">
-        <v>7.1536999999999997</v>
+        <v>7.335</v>
       </c>
       <c r="I149" s="5">
         <v>0</v>
       </c>
       <c r="J149" s="8">
-        <v>1.3899999999999999E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
     </row>
     <row r="150" spans="3:10" ht="18" thickBot="1">
       <c r="C150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2010</v>
       </c>
       <c r="D150" s="3">
-        <v>40238</v>
-      </c>
-      <c r="E150" s="4">
-        <v>7.2862</v>
+        <v>40269</v>
+      </c>
+      <c r="E150" s="7">
+        <v>7.3872</v>
       </c>
       <c r="F150" s="5">
-        <v>7.7096</v>
+        <v>7.2877000000000001</v>
       </c>
       <c r="G150" s="5">
-        <v>7.7191999999999998</v>
+        <v>7.5312000000000001</v>
       </c>
       <c r="H150" s="5">
-        <v>7.1962999999999999</v>
+        <v>7.1536999999999997</v>
       </c>
       <c r="I150" s="5">
         <v>0</v>
       </c>
-      <c r="J150" s="6">
-        <v>-5.5800000000000002E-2</v>
+      <c r="J150" s="8">
+        <v>1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="151" spans="3:10" ht="18" thickBot="1">
       <c r="C151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2010</v>
       </c>
       <c r="D151" s="3">
+        <v>40238</v>
+      </c>
+      <c r="E151" s="4">
+        <v>7.2862</v>
+      </c>
+      <c r="F151" s="5">
+        <v>7.7096</v>
+      </c>
+      <c r="G151" s="5">
+        <v>7.7191999999999998</v>
+      </c>
+      <c r="H151" s="5">
+        <v>7.1962999999999999</v>
+      </c>
+      <c r="I151" s="5">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6">
+        <v>-5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" ht="18" thickBot="1">
+      <c r="C152">
+        <f t="shared" si="9"/>
+        <v>2010</v>
+      </c>
+      <c r="D152" s="3">
         <v>40210</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E152" s="7">
         <v>7.7169999999999996</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F152" s="5">
         <v>7.6052999999999997</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G152" s="5">
         <v>7.9154999999999998</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H152" s="5">
         <v>7.391</v>
       </c>
-      <c r="I151" s="5">
-        <v>0</v>
-      </c>
-      <c r="J151" s="8">
+      <c r="I152" s="5">
+        <v>0</v>
+      </c>
+      <c r="J152" s="8">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="3:10" ht="17.25">
-      <c r="C152">
-        <f t="shared" si="11"/>
+    <row r="153" spans="3:10" ht="17.25">
+      <c r="C153">
+        <f t="shared" si="9"/>
         <v>2010</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D153" s="9">
         <v>40179</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E153" s="10">
         <v>7.6238000000000001</v>
       </c>
-      <c r="F152" s="11">
+      <c r="F153" s="11">
         <v>7.3890000000000002</v>
       </c>
-      <c r="G152" s="11">
+      <c r="G153" s="11">
         <v>7.6923000000000004</v>
       </c>
-      <c r="H152" s="11">
+      <c r="H153" s="11">
         <v>7.22</v>
       </c>
-      <c r="I152" s="11">
-        <v>0</v>
-      </c>
-      <c r="J152" s="12">
+      <c r="I153" s="11">
+        <v>0</v>
+      </c>
+      <c r="J153" s="12">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
@@ -12155,4 +12249,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D065B385-3D13-43B2-889B-99806AF0521A}">
+  <dimension ref="A3:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SATIM/DataSpreadsheets/ExchangeRate_Currency_Deflator_v00.xlsx
+++ b/SATIM/DataSpreadsheets/ExchangeRate_Currency_Deflator_v00.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7BB8E-A509-471F-AD4B-38DD139A006A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3800B-9184-4C5C-9CE4-BF9D83F9FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3615" yWindow="-21210" windowWidth="28770" windowHeight="15570" xr2:uid="{229B7DCB-2FD0-4685-ABA3-BD548D839EC5}"/>
+    <workbookView xWindow="8115" yWindow="-15600" windowWidth="25275" windowHeight="14745" xr2:uid="{229B7DCB-2FD0-4685-ABA3-BD548D839EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
     <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -607,6 +607,7 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -6926,10 +6927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F9E0C6-CEFF-47DC-AC13-AB5365841E40}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:AE153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6953,7 +6955,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="29">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
@@ -7015,57 +7017,57 @@
         <v>33</v>
       </c>
       <c r="E4" s="29">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="13">
-        <f>SUMIF($C$18:$C$153,P$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,P$3)</f>
+        <f t="shared" ref="P4:AA4" si="1">SUMIF($C$18:$C$153,P$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,P$3)</f>
         <v>7.3112916666666665</v>
       </c>
       <c r="Q4" s="13">
-        <f>SUMIF($C$18:$C$153,Q$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,Q$3)</f>
+        <f t="shared" si="1"/>
         <v>7.2519583333333335</v>
       </c>
       <c r="R4" s="13">
-        <f>SUMIF($C$18:$C$153,R$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,R$3)</f>
+        <f t="shared" si="1"/>
         <v>8.2029916666666658</v>
       </c>
       <c r="S4" s="13">
-        <f>SUMIF($C$18:$C$153,S$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,S$3)</f>
+        <f t="shared" si="1"/>
         <v>9.7545999999999999</v>
       </c>
       <c r="T4" s="13">
-        <f>SUMIF($C$18:$C$153,T$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,T$3)</f>
+        <f t="shared" si="1"/>
         <v>10.874366666666667</v>
       </c>
       <c r="U4" s="13">
-        <f>SUMIF($C$18:$C$153,U$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,U$3)</f>
+        <f t="shared" si="1"/>
         <v>12.937225000000003</v>
       </c>
       <c r="V4" s="13">
-        <f>SUMIF($C$18:$C$153,V$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,V$3)</f>
+        <f t="shared" si="1"/>
         <v>14.569299999999998</v>
       </c>
       <c r="W4" s="13">
-        <f>SUMIF($C$18:$C$153,W$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,W$3)</f>
+        <f t="shared" si="1"/>
         <v>13.292041666666664</v>
       </c>
       <c r="X4" s="13">
-        <f>SUMIF($C$18:$C$153,X$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,X$3)</f>
+        <f t="shared" si="1"/>
         <v>13.294000000000002</v>
       </c>
       <c r="Y4" s="13">
-        <f>SUMIF($C$18:$C$153,Y$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,Y$3)</f>
+        <f t="shared" si="1"/>
         <v>14.435708333333336</v>
       </c>
       <c r="Z4" s="13">
-        <f>SUMIF($C$18:$C$153,Z$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,Z$3)</f>
+        <f t="shared" si="1"/>
         <v>16.584166666666668</v>
       </c>
       <c r="AA4" s="32">
-        <f>SUMIF($C$18:$C$153,AA$3,$E$18:$E$153)/COUNTIF($C$18:$C$153,AA$3)</f>
+        <f t="shared" si="1"/>
         <v>14.890974999999999</v>
       </c>
     </row>
@@ -7107,8 +7109,7 @@
         <v>1.6393210749646394</v>
       </c>
       <c r="AA5" s="31">
-        <f>Z5/Y5*Z5</f>
-        <v>1.6933806826060758</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="AC5" t="s">
         <v>28</v>
@@ -7117,15 +7118,15 @@
     <row r="6" spans="3:29">
       <c r="D6" s="30" t="str">
         <f>"1 "&amp;E3&amp;" ZAR = "</f>
-        <v xml:space="preserve">1 2020 ZAR = </v>
+        <v xml:space="preserve">1 2015 ZAR = </v>
       </c>
       <c r="E6" s="33">
         <f>INDEX($P$5:$AB$5,1,MATCH($E$4,$P$3:$AB$3,0))/INDEX($P$5:$AB$5,1,MATCH($E$3,$P$3:$AB$3,0))</f>
-        <v>0.79378774805867114</v>
+        <v>1.3117923913043481</v>
       </c>
       <c r="F6" t="str">
         <f>E4&amp;" ZAR"</f>
-        <v>2015 ZAR</v>
+        <v>2021 ZAR</v>
       </c>
       <c r="O6" t="s">
         <v>11</v>
@@ -7171,15 +7172,19 @@
     <row r="7" spans="3:29">
       <c r="D7" s="30" t="str">
         <f>"1 "&amp;E3&amp;" USD = "</f>
-        <v xml:space="preserve">1 2020 USD = </v>
+        <v xml:space="preserve">1 2015 USD = </v>
       </c>
       <c r="E7" s="33">
         <f>INDEX($P$6:$AB$6,1,MATCH($E$4,$P$3:$AB$3,0))/INDEX($P$6:$AB$6,1,MATCH($E$3,$P$3:$AB$3,0))</f>
-        <v>0.91579183265008068</v>
+        <v>1.1054224397384176</v>
       </c>
       <c r="F7" t="str">
         <f>E4&amp;" USD"</f>
-        <v>2015 USD</v>
+        <v>2021 USD</v>
+      </c>
+      <c r="AA7" s="39">
+        <f>AA5/U5</f>
+        <v>1.3117923913043481</v>
       </c>
     </row>
     <row r="8" spans="3:29">
@@ -7199,70 +7204,70 @@
       </c>
       <c r="D9" s="30" t="str">
         <f>"1 "&amp;E3&amp;" USD = "</f>
-        <v xml:space="preserve">1 2020 USD = </v>
+        <v xml:space="preserve">1 2015 USD = </v>
       </c>
       <c r="E9">
         <f>INDEX($P$4:$AB$4,1,MATCH($E$3,$P$3:$AB$3,0))</f>
-        <v>16.584166666666668</v>
+        <v>12.937225000000003</v>
       </c>
       <c r="F9" t="str">
         <f>E3&amp;" ZAR = "</f>
-        <v xml:space="preserve">2020 ZAR = </v>
+        <v xml:space="preserve">2015 ZAR = </v>
       </c>
       <c r="G9" s="33">
         <f>E9*E6</f>
-        <v>13.164308311763014</v>
+        <v>16.9709533195924</v>
       </c>
       <c r="H9" t="str">
         <f>E4&amp;" ZAR"</f>
-        <v>2015 ZAR</v>
+        <v>2021 ZAR</v>
       </c>
       <c r="P9">
         <f>P3</f>
         <v>2010</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:AA9" si="1">Q3</f>
+        <f t="shared" ref="Q9:AA9" si="2">Q3</f>
         <v>2011</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="T9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="U9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
       <c r="V9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
       <c r="W9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2017</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2018</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -7272,23 +7277,23 @@
       </c>
       <c r="D10" s="30" t="str">
         <f>"1 "&amp;E3&amp;" USD = "</f>
-        <v xml:space="preserve">1 2020 USD = </v>
+        <v xml:space="preserve">1 2015 USD = </v>
       </c>
       <c r="E10">
         <f>E7</f>
-        <v>0.91579183265008068</v>
+        <v>1.1054224397384176</v>
       </c>
       <c r="F10" t="str">
         <f>E4&amp;" USD = "</f>
-        <v xml:space="preserve">2015 USD = </v>
+        <v xml:space="preserve">2021 USD = </v>
       </c>
       <c r="G10" s="33">
         <f>INDEX($P$4:$AB$4,1,MATCH($E$4,$P$3:$AB$3,0))*E10</f>
-        <v>11.847804992156442</v>
+        <v>16.460817914583782</v>
       </c>
       <c r="H10" t="str">
         <f>E4&amp;" ZAR"</f>
-        <v>2015 ZAR</v>
+        <v>2021 ZAR</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
@@ -7336,15 +7341,15 @@
       </c>
       <c r="D11" s="30" t="str">
         <f>D10</f>
-        <v xml:space="preserve">1 2020 USD = </v>
+        <v xml:space="preserve">1 2015 USD = </v>
       </c>
       <c r="G11" s="33">
         <f>AVERAGE(G9:G10)</f>
-        <v>12.506056651959728</v>
+        <v>16.715885617088091</v>
       </c>
       <c r="H11" t="str">
         <f>H10</f>
-        <v>2015 ZAR</v>
+        <v>2021 ZAR</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
@@ -7436,47 +7441,47 @@
         <v>3.2160570827086965</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:AA13" si="2">_xlfn.STDEV.S(Q10:Q11)</f>
+        <f t="shared" ref="Q13:AA13" si="3">_xlfn.STDEV.S(Q10:Q11)</f>
         <v>3.2811431314775441</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.637182041113026</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6527390944341185</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1200041916100147</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65375482899360748</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44978474269419172</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60846814498108848</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11115951829690279</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93090842474840729</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11362120409528452</v>
       </c>
     </row>
@@ -7487,51 +7492,51 @@
     </row>
     <row r="15" spans="3:29">
       <c r="P15">
-        <f t="shared" ref="P15:AA15" si="3">P3</f>
+        <f t="shared" ref="P15:AA15" si="4">P3</f>
         <v>2010</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2011</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2013</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2014</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="X15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -7643,7 +7648,7 @@
     </row>
     <row r="18" spans="3:27" ht="18" thickBot="1">
       <c r="C18">
-        <f t="shared" ref="C18:C20" si="4">YEAR(D18)</f>
+        <f t="shared" ref="C18:C20" si="5">YEAR(D18)</f>
         <v>2021</v>
       </c>
       <c r="D18" s="34">
@@ -7709,7 +7714,7 @@
     </row>
     <row r="19" spans="3:27" ht="18" thickBot="1">
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
       <c r="D19" s="3">
@@ -7737,57 +7742,57 @@
         <v>40</v>
       </c>
       <c r="P19">
-        <f>_xlfn.STDEV.S(P16:P17)</f>
+        <f t="shared" ref="P19:AA19" si="6">_xlfn.STDEV.S(P16:P17)</f>
         <v>4.185164652737253</v>
       </c>
       <c r="Q19">
-        <f>_xlfn.STDEV.S(Q16:Q17)</f>
+        <f t="shared" si="6"/>
         <v>4.2309631463451218</v>
       </c>
       <c r="R19">
-        <f>_xlfn.STDEV.S(R16:R17)</f>
+        <f t="shared" si="6"/>
         <v>3.5311317301022185</v>
       </c>
       <c r="S19">
-        <f>_xlfn.STDEV.S(S16:S17)</f>
+        <f t="shared" si="6"/>
         <v>2.4737781153349752</v>
       </c>
       <c r="T19">
-        <f>_xlfn.STDEV.S(T16:T17)</f>
+        <f t="shared" si="6"/>
         <v>1.895831350679628</v>
       </c>
       <c r="U19">
-        <f>_xlfn.STDEV.S(U16:U17)</f>
+        <f t="shared" si="6"/>
         <v>0.70397679683353465</v>
       </c>
       <c r="V19">
-        <f>_xlfn.STDEV.S(V16:V17)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>_xlfn.STDEV.S(W16:W17)</f>
+        <f t="shared" si="6"/>
         <v>1.1590089429360562</v>
       </c>
       <c r="X19">
-        <f>_xlfn.STDEV.S(X16:X17)</f>
+        <f t="shared" si="6"/>
         <v>1.3115241286944341</v>
       </c>
       <c r="Y19">
-        <f>_xlfn.STDEV.S(Y16:Y17)</f>
+        <f t="shared" si="6"/>
         <v>0.77085739220562444</v>
       </c>
       <c r="Z19">
-        <f>_xlfn.STDEV.S(Z16:Z17)</f>
+        <f t="shared" si="6"/>
         <v>0.34523721453271761</v>
       </c>
       <c r="AA19">
-        <f>_xlfn.STDEV.S(AA16:AA17)</f>
+        <f t="shared" si="6"/>
         <v>0.7576650583979172</v>
       </c>
     </row>
     <row r="20" spans="3:27" ht="18" thickBot="1">
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
       <c r="D20" s="3">
@@ -7817,7 +7822,7 @@
     </row>
     <row r="21" spans="3:27" ht="18" thickBot="1">
       <c r="C21">
-        <f t="shared" ref="C21:C83" si="5">YEAR(D21)</f>
+        <f t="shared" ref="C21:C83" si="7">YEAR(D21)</f>
         <v>2021</v>
       </c>
       <c r="D21" s="3">
@@ -7842,57 +7847,57 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="P21">
-        <f>P9</f>
+        <f t="shared" ref="P21:AA21" si="8">P9</f>
         <v>2010</v>
       </c>
       <c r="Q21">
-        <f>Q9</f>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="R21">
-        <f>R9</f>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="S21">
-        <f>S9</f>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="T21">
-        <f>T9</f>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="U21">
-        <f>U9</f>
+        <f t="shared" si="8"/>
         <v>2015</v>
       </c>
       <c r="V21">
-        <f>V9</f>
+        <f t="shared" si="8"/>
         <v>2016</v>
       </c>
       <c r="W21">
-        <f>W9</f>
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
       <c r="X21">
-        <f>X9</f>
+        <f t="shared" si="8"/>
         <v>2018</v>
       </c>
       <c r="Y21">
-        <f>Y9</f>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="Z21">
-        <f>Z9</f>
+        <f t="shared" si="8"/>
         <v>2020</v>
       </c>
       <c r="AA21">
-        <f>AA9</f>
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
     <row r="22" spans="3:27" ht="18" thickBot="1">
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D22" s="3">
@@ -7958,7 +7963,7 @@
     </row>
     <row r="23" spans="3:27" ht="18" thickBot="1">
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D23" s="3">
@@ -8024,7 +8029,7 @@
     </row>
     <row r="24" spans="3:27" ht="18" thickBot="1">
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D24" s="3">
@@ -8090,7 +8095,7 @@
     </row>
     <row r="25" spans="3:27" ht="18" thickBot="1">
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D25" s="3">
@@ -8122,53 +8127,53 @@
         <v>3.7632483819341918</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:AA25" si="6">_xlfn.STDEV.S(Q22:Q23)</f>
+        <f t="shared" ref="Q25:AA25" si="9">_xlfn.STDEV.S(Q22:Q23)</f>
         <v>3.8474886238714787</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.0652600244846093</v>
       </c>
       <c r="S25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8668468625190691</v>
       </c>
       <c r="T25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2195168096929787</v>
       </c>
       <c r="U25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14622777683474844</v>
       </c>
       <c r="V25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.94170272572350489</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.40714794294846046</v>
       </c>
       <c r="X25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.60404387414729122</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2692177391315271</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.2862100545342985E-3</v>
       </c>
     </row>
     <row r="26" spans="3:27" ht="18" thickBot="1">
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D26" s="3">
@@ -8195,7 +8200,7 @@
     </row>
     <row r="27" spans="3:27" ht="18" thickBot="1">
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D27" s="3">
@@ -8222,7 +8227,7 @@
     </row>
     <row r="28" spans="3:27" ht="18" thickBot="1">
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D28" s="3">
@@ -8249,7 +8254,7 @@
     </row>
     <row r="29" spans="3:27" ht="18" thickBot="1">
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D29" s="3">
@@ -8276,7 +8281,7 @@
     </row>
     <row r="30" spans="3:27" ht="18" thickBot="1">
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D30" s="3">
@@ -8303,7 +8308,7 @@
     </row>
     <row r="31" spans="3:27" ht="18" thickBot="1">
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D31" s="3">
@@ -8330,7 +8335,7 @@
     </row>
     <row r="32" spans="3:27" ht="18" thickBot="1">
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D32" s="3">
@@ -8357,7 +8362,7 @@
     </row>
     <row r="33" spans="3:31" ht="18" thickBot="1">
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="D33" s="3">
@@ -8384,7 +8389,7 @@
     </row>
     <row r="34" spans="3:31" ht="18" thickBot="1">
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D34" s="3">
@@ -8411,7 +8416,7 @@
     </row>
     <row r="35" spans="3:31" ht="18" thickBot="1">
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D35" s="3">
@@ -8438,7 +8443,7 @@
     </row>
     <row r="36" spans="3:31" ht="18" thickBot="1">
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D36" s="3">
@@ -8465,7 +8470,7 @@
     </row>
     <row r="37" spans="3:31" ht="18" thickBot="1">
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D37" s="3">
@@ -8492,7 +8497,7 @@
     </row>
     <row r="38" spans="3:31" ht="18" thickBot="1">
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D38" s="3">
@@ -8519,7 +8524,7 @@
     </row>
     <row r="39" spans="3:31" ht="18" thickBot="1">
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D39" s="3">
@@ -8546,7 +8551,7 @@
     </row>
     <row r="40" spans="3:31" ht="18" thickBot="1">
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D40" s="3">
@@ -8573,7 +8578,7 @@
     </row>
     <row r="41" spans="3:31" ht="18" thickBot="1">
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D41" s="3">
@@ -8600,7 +8605,7 @@
     </row>
     <row r="42" spans="3:31" ht="18" thickBot="1">
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D42" s="3">
@@ -8627,7 +8632,7 @@
     </row>
     <row r="43" spans="3:31" ht="18" thickBot="1">
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D43" s="3">
@@ -8657,7 +8662,7 @@
     </row>
     <row r="44" spans="3:31" ht="18" thickBot="1">
       <c r="C44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D44" s="3">
@@ -8732,7 +8737,7 @@
     </row>
     <row r="45" spans="3:31" ht="18" thickBot="1">
       <c r="C45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="D45" s="3">
@@ -8805,13 +8810,13 @@
         <v>1.6</v>
       </c>
       <c r="AE45">
-        <f t="shared" ref="AE45:AE55" si="7">AB45/$AB$45</f>
+        <f t="shared" ref="AE45:AE55" si="10">AB45/$AB$45</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:31" ht="18" thickBot="1">
       <c r="C46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D46" s="3">
@@ -8884,13 +8889,13 @@
         <v>3.2</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0315652859815827</v>
       </c>
     </row>
     <row r="47" spans="3:31" ht="18" thickBot="1">
       <c r="C47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D47" s="3">
@@ -8963,13 +8968,13 @@
         <v>2.1</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0529130131709286</v>
       </c>
     </row>
     <row r="48" spans="3:31" ht="18" thickBot="1">
       <c r="C48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D48" s="3">
@@ -9042,13 +9047,13 @@
         <v>1.5</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0683356568954763</v>
       </c>
     </row>
     <row r="49" spans="3:31" ht="18" thickBot="1">
       <c r="C49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D49" s="3">
@@ -9121,13 +9126,13 @@
         <v>1.6</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0856660674322192</v>
       </c>
     </row>
     <row r="50" spans="3:31" ht="18" thickBot="1">
       <c r="C50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D50" s="3">
@@ -9200,13 +9205,13 @@
         <v>0.1</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0869547272260336</v>
       </c>
     </row>
     <row r="51" spans="3:31" ht="18" thickBot="1">
       <c r="C51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D51" s="3">
@@ -9279,13 +9284,13 @@
         <v>1.3</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1006668011886855</v>
       </c>
     </row>
     <row r="52" spans="3:31" ht="18" thickBot="1">
       <c r="C52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D52" s="3">
@@ -9358,13 +9363,13 @@
         <v>2.1</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1241149062626115</v>
       </c>
     </row>
     <row r="53" spans="3:31" ht="18" thickBot="1">
       <c r="C53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D53" s="3">
@@ -9437,13 +9442,13 @@
         <v>2.4</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1515711560333124</v>
       </c>
     </row>
     <row r="54" spans="3:31" ht="18" thickBot="1">
       <c r="C54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D54" s="3">
@@ -9516,13 +9521,13 @@
         <v>1.8</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1724373555416956</v>
       </c>
     </row>
     <row r="55" spans="3:31" ht="18" thickBot="1">
       <c r="C55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D55" s="3">
@@ -9595,13 +9600,13 @@
         <v>1.2</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1869015298822319</v>
       </c>
     </row>
     <row r="56" spans="3:31" ht="18" thickBot="1">
       <c r="C56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D56" s="3">
@@ -9628,7 +9633,7 @@
     </row>
     <row r="57" spans="3:31" ht="18" thickBot="1">
       <c r="C57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="D57" s="3">
@@ -9655,7 +9660,7 @@
     </row>
     <row r="58" spans="3:31" ht="18" thickBot="1">
       <c r="C58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D58" s="3">
@@ -9682,7 +9687,7 @@
     </row>
     <row r="59" spans="3:31" ht="18" thickBot="1">
       <c r="C59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D59" s="3">
@@ -9709,7 +9714,7 @@
     </row>
     <row r="60" spans="3:31" ht="18" thickBot="1">
       <c r="C60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D60" s="3">
@@ -9736,7 +9741,7 @@
     </row>
     <row r="61" spans="3:31" ht="18" thickBot="1">
       <c r="C61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D61" s="3">
@@ -9763,7 +9768,7 @@
     </row>
     <row r="62" spans="3:31" ht="18" thickBot="1">
       <c r="C62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D62" s="3">
@@ -9790,7 +9795,7 @@
     </row>
     <row r="63" spans="3:31" ht="18" thickBot="1">
       <c r="C63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D63" s="3">
@@ -9817,7 +9822,7 @@
     </row>
     <row r="64" spans="3:31" ht="18" thickBot="1">
       <c r="C64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D64" s="3">
@@ -9844,7 +9849,7 @@
     </row>
     <row r="65" spans="3:10" ht="18" thickBot="1">
       <c r="C65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D65" s="3">
@@ -9871,7 +9876,7 @@
     </row>
     <row r="66" spans="3:10" ht="18" thickBot="1">
       <c r="C66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D66" s="3">
@@ -9898,7 +9903,7 @@
     </row>
     <row r="67" spans="3:10" ht="18" thickBot="1">
       <c r="C67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D67" s="3">
@@ -9925,7 +9930,7 @@
     </row>
     <row r="68" spans="3:10" ht="18" thickBot="1">
       <c r="C68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D68" s="3">
@@ -9952,7 +9957,7 @@
     </row>
     <row r="69" spans="3:10" ht="18" thickBot="1">
       <c r="C69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="D69" s="3">
@@ -9979,7 +9984,7 @@
     </row>
     <row r="70" spans="3:10" ht="18" thickBot="1">
       <c r="C70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D70" s="3">
@@ -10006,7 +10011,7 @@
     </row>
     <row r="71" spans="3:10" ht="18" thickBot="1">
       <c r="C71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D71" s="3">
@@ -10033,7 +10038,7 @@
     </row>
     <row r="72" spans="3:10" ht="18" thickBot="1">
       <c r="C72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D72" s="3">
@@ -10060,7 +10065,7 @@
     </row>
     <row r="73" spans="3:10" ht="18" thickBot="1">
       <c r="C73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D73" s="3">
@@ -10087,7 +10092,7 @@
     </row>
     <row r="74" spans="3:10" ht="18" thickBot="1">
       <c r="C74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D74" s="3">
@@ -10114,7 +10119,7 @@
     </row>
     <row r="75" spans="3:10" ht="18" thickBot="1">
       <c r="C75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D75" s="3">
@@ -10141,7 +10146,7 @@
     </row>
     <row r="76" spans="3:10" ht="18" thickBot="1">
       <c r="C76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D76" s="3">
@@ -10168,7 +10173,7 @@
     </row>
     <row r="77" spans="3:10" ht="18" thickBot="1">
       <c r="C77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D77" s="3">
@@ -10195,7 +10200,7 @@
     </row>
     <row r="78" spans="3:10" ht="18" thickBot="1">
       <c r="C78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D78" s="3">
@@ -10222,7 +10227,7 @@
     </row>
     <row r="79" spans="3:10" ht="18" thickBot="1">
       <c r="C79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D79" s="3">
@@ -10249,7 +10254,7 @@
     </row>
     <row r="80" spans="3:10" ht="18" thickBot="1">
       <c r="C80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D80" s="3">
@@ -10276,7 +10281,7 @@
     </row>
     <row r="81" spans="3:10" ht="18" thickBot="1">
       <c r="C81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2016</v>
       </c>
       <c r="D81" s="3">
@@ -10303,7 +10308,7 @@
     </row>
     <row r="82" spans="3:10" ht="18" thickBot="1">
       <c r="C82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2015</v>
       </c>
       <c r="D82" s="3">
@@ -10330,7 +10335,7 @@
     </row>
     <row r="83" spans="3:10" ht="18" thickBot="1">
       <c r="C83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2015</v>
       </c>
       <c r="D83" s="3">
@@ -10357,7 +10362,7 @@
     </row>
     <row r="84" spans="3:10" ht="18" thickBot="1">
       <c r="C84">
-        <f t="shared" ref="C84:C147" si="8">YEAR(D84)</f>
+        <f t="shared" ref="C84:C147" si="11">YEAR(D84)</f>
         <v>2015</v>
       </c>
       <c r="D84" s="3">
@@ -10384,7 +10389,7 @@
     </row>
     <row r="85" spans="3:10" ht="18" thickBot="1">
       <c r="C85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D85" s="3">
@@ -10411,7 +10416,7 @@
     </row>
     <row r="86" spans="3:10" ht="18" thickBot="1">
       <c r="C86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D86" s="3">
@@ -10438,7 +10443,7 @@
     </row>
     <row r="87" spans="3:10" ht="18" thickBot="1">
       <c r="C87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D87" s="3">
@@ -10465,7 +10470,7 @@
     </row>
     <row r="88" spans="3:10" ht="18" thickBot="1">
       <c r="C88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D88" s="3">
@@ -10492,7 +10497,7 @@
     </row>
     <row r="89" spans="3:10" ht="18" thickBot="1">
       <c r="C89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D89" s="3">
@@ -10519,7 +10524,7 @@
     </row>
     <row r="90" spans="3:10" ht="18" thickBot="1">
       <c r="C90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D90" s="3">
@@ -10546,7 +10551,7 @@
     </row>
     <row r="91" spans="3:10" ht="18" thickBot="1">
       <c r="C91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D91" s="3">
@@ -10573,7 +10578,7 @@
     </row>
     <row r="92" spans="3:10" ht="18" thickBot="1">
       <c r="C92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D92" s="3">
@@ -10600,7 +10605,7 @@
     </row>
     <row r="93" spans="3:10" ht="18" thickBot="1">
       <c r="C93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2015</v>
       </c>
       <c r="D93" s="3">
@@ -10627,7 +10632,7 @@
     </row>
     <row r="94" spans="3:10" ht="18" thickBot="1">
       <c r="C94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D94" s="3">
@@ -10654,7 +10659,7 @@
     </row>
     <row r="95" spans="3:10" ht="18" thickBot="1">
       <c r="C95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D95" s="3">
@@ -10681,7 +10686,7 @@
     </row>
     <row r="96" spans="3:10" ht="18" thickBot="1">
       <c r="C96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D96" s="3">
@@ -10708,7 +10713,7 @@
     </row>
     <row r="97" spans="3:10" ht="18" thickBot="1">
       <c r="C97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D97" s="3">
@@ -10735,7 +10740,7 @@
     </row>
     <row r="98" spans="3:10" ht="18" thickBot="1">
       <c r="C98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D98" s="3">
@@ -10762,7 +10767,7 @@
     </row>
     <row r="99" spans="3:10" ht="18" thickBot="1">
       <c r="C99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D99" s="3">
@@ -10789,7 +10794,7 @@
     </row>
     <row r="100" spans="3:10" ht="18" thickBot="1">
       <c r="C100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D100" s="3">
@@ -10816,7 +10821,7 @@
     </row>
     <row r="101" spans="3:10" ht="18" thickBot="1">
       <c r="C101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D101" s="3">
@@ -10843,7 +10848,7 @@
     </row>
     <row r="102" spans="3:10" ht="18" thickBot="1">
       <c r="C102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D102" s="3">
@@ -10870,7 +10875,7 @@
     </row>
     <row r="103" spans="3:10" ht="18" thickBot="1">
       <c r="C103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D103" s="3">
@@ -10897,7 +10902,7 @@
     </row>
     <row r="104" spans="3:10" ht="18" thickBot="1">
       <c r="C104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D104" s="3">
@@ -10924,7 +10929,7 @@
     </row>
     <row r="105" spans="3:10" ht="18" thickBot="1">
       <c r="C105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2014</v>
       </c>
       <c r="D105" s="3">
@@ -10951,7 +10956,7 @@
     </row>
     <row r="106" spans="3:10" ht="18" thickBot="1">
       <c r="C106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D106" s="3">
@@ -10978,7 +10983,7 @@
     </row>
     <row r="107" spans="3:10" ht="18" thickBot="1">
       <c r="C107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D107" s="3">
@@ -11005,7 +11010,7 @@
     </row>
     <row r="108" spans="3:10" ht="18" thickBot="1">
       <c r="C108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D108" s="3">
@@ -11032,7 +11037,7 @@
     </row>
     <row r="109" spans="3:10" ht="18" thickBot="1">
       <c r="C109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D109" s="3">
@@ -11059,7 +11064,7 @@
     </row>
     <row r="110" spans="3:10" ht="18" thickBot="1">
       <c r="C110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D110" s="3">
@@ -11086,7 +11091,7 @@
     </row>
     <row r="111" spans="3:10" ht="18" thickBot="1">
       <c r="C111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D111" s="3">
@@ -11113,7 +11118,7 @@
     </row>
     <row r="112" spans="3:10" ht="18" thickBot="1">
       <c r="C112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D112" s="3">
@@ -11140,7 +11145,7 @@
     </row>
     <row r="113" spans="3:10" ht="18" thickBot="1">
       <c r="C113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D113" s="3">
@@ -11167,7 +11172,7 @@
     </row>
     <row r="114" spans="3:10" ht="18" thickBot="1">
       <c r="C114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D114" s="3">
@@ -11194,7 +11199,7 @@
     </row>
     <row r="115" spans="3:10" ht="18" thickBot="1">
       <c r="C115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D115" s="3">
@@ -11221,7 +11226,7 @@
     </row>
     <row r="116" spans="3:10" ht="18" thickBot="1">
       <c r="C116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D116" s="3">
@@ -11248,7 +11253,7 @@
     </row>
     <row r="117" spans="3:10" ht="18" thickBot="1">
       <c r="C117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="D117" s="3">
@@ -11275,7 +11280,7 @@
     </row>
     <row r="118" spans="3:10" ht="18" thickBot="1">
       <c r="C118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D118" s="3">
@@ -11302,7 +11307,7 @@
     </row>
     <row r="119" spans="3:10" ht="18" thickBot="1">
       <c r="C119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D119" s="3">
@@ -11329,7 +11334,7 @@
     </row>
     <row r="120" spans="3:10" ht="18" thickBot="1">
       <c r="C120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D120" s="3">
@@ -11356,7 +11361,7 @@
     </row>
     <row r="121" spans="3:10" ht="18" thickBot="1">
       <c r="C121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D121" s="3">
@@ -11383,7 +11388,7 @@
     </row>
     <row r="122" spans="3:10" ht="18" thickBot="1">
       <c r="C122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D122" s="3">
@@ -11410,7 +11415,7 @@
     </row>
     <row r="123" spans="3:10" ht="18" thickBot="1">
       <c r="C123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D123" s="3">
@@ -11437,7 +11442,7 @@
     </row>
     <row r="124" spans="3:10" ht="18" thickBot="1">
       <c r="C124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D124" s="3">
@@ -11464,7 +11469,7 @@
     </row>
     <row r="125" spans="3:10" ht="18" thickBot="1">
       <c r="C125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D125" s="3">
@@ -11491,7 +11496,7 @@
     </row>
     <row r="126" spans="3:10" ht="18" thickBot="1">
       <c r="C126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D126" s="3">
@@ -11518,7 +11523,7 @@
     </row>
     <row r="127" spans="3:10" ht="18" thickBot="1">
       <c r="C127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D127" s="3">
@@ -11545,7 +11550,7 @@
     </row>
     <row r="128" spans="3:10" ht="18" thickBot="1">
       <c r="C128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D128" s="3">
@@ -11572,7 +11577,7 @@
     </row>
     <row r="129" spans="3:10" ht="18" thickBot="1">
       <c r="C129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="D129" s="3">
@@ -11599,7 +11604,7 @@
     </row>
     <row r="130" spans="3:10" ht="18" thickBot="1">
       <c r="C130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D130" s="3">
@@ -11626,7 +11631,7 @@
     </row>
     <row r="131" spans="3:10" ht="18" thickBot="1">
       <c r="C131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D131" s="3">
@@ -11653,7 +11658,7 @@
     </row>
     <row r="132" spans="3:10" ht="18" thickBot="1">
       <c r="C132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D132" s="3">
@@ -11680,7 +11685,7 @@
     </row>
     <row r="133" spans="3:10" ht="18" thickBot="1">
       <c r="C133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D133" s="3">
@@ -11707,7 +11712,7 @@
     </row>
     <row r="134" spans="3:10" ht="18" thickBot="1">
       <c r="C134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D134" s="3">
@@ -11734,7 +11739,7 @@
     </row>
     <row r="135" spans="3:10" ht="18" thickBot="1">
       <c r="C135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D135" s="3">
@@ -11761,7 +11766,7 @@
     </row>
     <row r="136" spans="3:10" ht="18" thickBot="1">
       <c r="C136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D136" s="3">
@@ -11788,7 +11793,7 @@
     </row>
     <row r="137" spans="3:10" ht="18" thickBot="1">
       <c r="C137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D137" s="3">
@@ -11815,7 +11820,7 @@
     </row>
     <row r="138" spans="3:10" ht="18" thickBot="1">
       <c r="C138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D138" s="3">
@@ -11842,7 +11847,7 @@
     </row>
     <row r="139" spans="3:10" ht="18" thickBot="1">
       <c r="C139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D139" s="3">
@@ -11869,7 +11874,7 @@
     </row>
     <row r="140" spans="3:10" ht="18" thickBot="1">
       <c r="C140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D140" s="3">
@@ -11896,7 +11901,7 @@
     </row>
     <row r="141" spans="3:10" ht="18" thickBot="1">
       <c r="C141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="D141" s="3">
@@ -11923,7 +11928,7 @@
     </row>
     <row r="142" spans="3:10" ht="18" thickBot="1">
       <c r="C142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
       <c r="D142" s="3">
@@ -11950,7 +11955,7 @@
     </row>
     <row r="143" spans="3:10" ht="18" thickBot="1">
       <c r="C143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
       <c r="D143" s="3">
@@ -11977,7 +11982,7 @@
     </row>
     <row r="144" spans="3:10" ht="18" thickBot="1">
       <c r="C144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
       <c r="D144" s="3">
@@ -12004,7 +12009,7 @@
     </row>
     <row r="145" spans="3:10" ht="18" thickBot="1">
       <c r="C145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
       <c r="D145" s="3">
@@ -12031,7 +12036,7 @@
     </row>
     <row r="146" spans="3:10" ht="18" thickBot="1">
       <c r="C146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
       <c r="D146" s="3">
@@ -12058,7 +12063,7 @@
     </row>
     <row r="147" spans="3:10" ht="18" thickBot="1">
       <c r="C147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
       <c r="D147" s="3">
@@ -12085,7 +12090,7 @@
     </row>
     <row r="148" spans="3:10" ht="18" thickBot="1">
       <c r="C148">
-        <f t="shared" ref="C148:C153" si="9">YEAR(D148)</f>
+        <f t="shared" ref="C148:C153" si="12">YEAR(D148)</f>
         <v>2010</v>
       </c>
       <c r="D148" s="3">
@@ -12112,7 +12117,7 @@
     </row>
     <row r="149" spans="3:10" ht="18" thickBot="1">
       <c r="C149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2010</v>
       </c>
       <c r="D149" s="3">
@@ -12139,7 +12144,7 @@
     </row>
     <row r="150" spans="3:10" ht="18" thickBot="1">
       <c r="C150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2010</v>
       </c>
       <c r="D150" s="3">
@@ -12166,7 +12171,7 @@
     </row>
     <row r="151" spans="3:10" ht="18" thickBot="1">
       <c r="C151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2010</v>
       </c>
       <c r="D151" s="3">
@@ -12193,7 +12198,7 @@
     </row>
     <row r="152" spans="3:10" ht="18" thickBot="1">
       <c r="C152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2010</v>
       </c>
       <c r="D152" s="3">
@@ -12220,7 +12225,7 @@
     </row>
     <row r="153" spans="3:10" ht="17.25">
       <c r="C153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2010</v>
       </c>
       <c r="D153" s="9">
@@ -12253,6 +12258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D065B385-3D13-43B2-889B-99806AF0521A}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SATIM/DataSpreadsheets/ExchangeRate_Currency_Deflator_v00.xlsx
+++ b/SATIM/DataSpreadsheets/ExchangeRate_Currency_Deflator_v00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3800B-9184-4C5C-9CE4-BF9D83F9FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD037EEB-1CB9-4C75-98BB-5909CBC98B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="-15600" windowWidth="25275" windowHeight="14745" xr2:uid="{229B7DCB-2FD0-4685-ABA3-BD548D839EC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{229B7DCB-2FD0-4685-ABA3-BD548D839EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +281,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -497,13 +505,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -608,9 +617,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
@@ -6931,7 +6942,7 @@
   <dimension ref="C2:AE153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7108,10 +7119,13 @@
       <c r="Z5">
         <v>1.6393210749646394</v>
       </c>
-      <c r="AA5" s="31">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AA5">
+        <v>1.714</v>
+      </c>
+      <c r="AB5">
+        <v>1.829</v>
+      </c>
+      <c r="AC5" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7122,7 +7136,7 @@
       </c>
       <c r="E6" s="33">
         <f>INDEX($P$5:$AB$5,1,MATCH($E$4,$P$3:$AB$3,0))/INDEX($P$5:$AB$5,1,MATCH($E$3,$P$3:$AB$3,0))</f>
-        <v>1.3117923913043481</v>
+        <v>1.3171717391304349</v>
       </c>
       <c r="F6" t="str">
         <f>E4&amp;" ZAR"</f>
@@ -7184,7 +7198,7 @@
       </c>
       <c r="AA7" s="39">
         <f>AA5/U5</f>
-        <v>1.3117923913043481</v>
+        <v>1.3171717391304349</v>
       </c>
     </row>
     <row r="8" spans="3:29">
@@ -7216,7 +7230,7 @@
       </c>
       <c r="G9" s="33">
         <f>E9*E6</f>
-        <v>16.9709533195924</v>
+        <v>17.040547152771747</v>
       </c>
       <c r="H9" t="str">
         <f>E4&amp;" ZAR"</f>
@@ -7345,7 +7359,7 @@
       </c>
       <c r="G11" s="33">
         <f>AVERAGE(G9:G10)</f>
-        <v>16.715885617088091</v>
+        <v>16.750682533677764</v>
       </c>
       <c r="H11" t="str">
         <f>H10</f>
@@ -12251,8 +12265,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AC5" r:id="rId1" xr:uid="{371CCD4D-74E8-4DA9-8FC6-EC0EC1534183}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
